--- a/results/2013_05_07_matrix.xlsx
+++ b/results/2013_05_07_matrix.xlsx
@@ -4300,27 +4300,46 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98585408"/>
-        <c:axId val="71465728"/>
+        <c:axId val="91885504"/>
+        <c:axId val="91886080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98585408"/>
+        <c:axId val="91885504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>edge length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71465728"/>
+        <c:crossAx val="91886080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71465728"/>
+        <c:axId val="91886080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4328,11 +4347,30 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98585408"/>
+        <c:crossAx val="91885504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4679,7 +4717,7 @@
   <dimension ref="A1:L568"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/2013_05_07_matrix.xlsx
+++ b/results/2013_05_07_matrix.xlsx
@@ -97,13 +97,13 @@
     <t>Matrix multiplication (hybrid)</t>
   </si>
   <si>
-    <t>Matrix multiplication (Tiles. AMD)</t>
+    <t>Matrix multiplication (NVIDIA)</t>
   </si>
   <si>
-    <t>Matrix multiplication (Tiles local. AMD)</t>
+    <t>Matrix multiplication (Tiles local, AMD)</t>
   </si>
   <si>
-    <t>Matrix multiplication (NVIDIA)</t>
+    <t>Matrix multiplication (Tiles, AMD)</t>
   </si>
 </sst>
 </file>
@@ -588,7 +588,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
@@ -3699,7 +3701,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Matrix multiplication (Tiles local. AMD) GPU CL</c:v>
+                  <c:v>Matrix multiplication (Tiles local, AMD) GPU CL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3855,136 +3857,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>2.1410000000000001E-3</c:v>
+                  <c:v>1.606E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.665E-3</c:v>
+                  <c:v>1.493E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9949999999999998E-3</c:v>
+                  <c:v>1.5299999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0639999999999999E-3</c:v>
+                  <c:v>1.8699999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2360000000000001E-3</c:v>
+                  <c:v>1.678E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0739999999999999E-3</c:v>
+                  <c:v>2.483E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3660000000000001E-3</c:v>
+                  <c:v>3.0040000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3080000000000002E-3</c:v>
+                  <c:v>5.3049999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7520000000000002E-3</c:v>
+                  <c:v>7.4269999999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0595E-2</c:v>
+                  <c:v>1.0577E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3754000000000001E-2</c:v>
+                  <c:v>1.3729E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1649999999999999E-2</c:v>
+                  <c:v>2.2419000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8455999999999999E-2</c:v>
+                  <c:v>3.1358999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9274999999999997E-2</c:v>
+                  <c:v>3.7101000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9067E-2</c:v>
+                  <c:v>5.2084999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.8396999999999998E-2</c:v>
+                  <c:v>5.9617000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.4686000000000002E-2</c:v>
+                  <c:v>7.5006000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.2899E-2</c:v>
+                  <c:v>8.5470000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.106071</c:v>
+                  <c:v>0.105776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.112557</c:v>
+                  <c:v>0.11296</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.143342</c:v>
+                  <c:v>0.143757</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.17494799999999999</c:v>
+                  <c:v>0.18296000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19233600000000001</c:v>
+                  <c:v>0.193019</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.26807599999999998</c:v>
+                  <c:v>0.28466000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.25231300000000001</c:v>
+                  <c:v>0.25194699999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.296738</c:v>
+                  <c:v>0.298151</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.33074300000000001</c:v>
+                  <c:v>0.33058500000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.37911299999999998</c:v>
+                  <c:v>0.38225300000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.44656299999999999</c:v>
+                  <c:v>0.44579600000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.47187299999999999</c:v>
+                  <c:v>0.49562299999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.54083099999999995</c:v>
+                  <c:v>0.53948099999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.58902399999999999</c:v>
+                  <c:v>0.58892999999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.66232800000000003</c:v>
+                  <c:v>0.66699900000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.70373699999999995</c:v>
+                  <c:v>0.70559499999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.79426300000000005</c:v>
+                  <c:v>0.79517300000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.83106800000000003</c:v>
+                  <c:v>0.83301599999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.961677</c:v>
+                  <c:v>0.96901999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.0508519999999999</c:v>
+                  <c:v>1.052457</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1085199999999999</c:v>
+                  <c:v>1.110382</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.2300960000000001</c:v>
+                  <c:v>1.231187</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3101750000000001</c:v>
+                  <c:v>1.298225</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.452637</c:v>
+                  <c:v>1.453308</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.5035449999999999</c:v>
+                  <c:v>1.5036480000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.647089</c:v>
+                  <c:v>1.6475029999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4000,7 +4002,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Matrix multiplication (Tiles. AMD) GPU CL</c:v>
+                  <c:v>Matrix multiplication (Tiles, AMD) GPU CL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4156,136 +4158,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>2.5370000000000002E-3</c:v>
+                  <c:v>2.3059999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.462E-3</c:v>
+                  <c:v>1.464E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.085E-3</c:v>
+                  <c:v>1.787E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1580000000000002E-3</c:v>
+                  <c:v>1.9599999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.371E-3</c:v>
+                  <c:v>1.114E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0170000000000001E-3</c:v>
+                  <c:v>1.9940000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1350000000000002E-3</c:v>
+                  <c:v>4.529E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6310000000000001E-3</c:v>
+                  <c:v>5.2350000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7190000000000001E-3</c:v>
+                  <c:v>5.5849999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9100000000000003E-3</c:v>
+                  <c:v>7.9729999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2519999999999997E-3</c:v>
+                  <c:v>1.155E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.5950000000000002E-3</c:v>
+                  <c:v>1.4271000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0149999999999999E-2</c:v>
+                  <c:v>2.1964000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.2227999999999999E-2</c:v>
+                  <c:v>2.6584E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5376000000000001E-2</c:v>
+                  <c:v>3.5947E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.1408999999999999E-2</c:v>
+                  <c:v>3.9903000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3192000000000001E-2</c:v>
+                  <c:v>5.7339000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.6523999999999999E-2</c:v>
+                  <c:v>6.4307000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2551999999999998E-2</c:v>
+                  <c:v>8.3482000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3916000000000002E-2</c:v>
+                  <c:v>8.5694000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4330000000000001E-2</c:v>
+                  <c:v>0.117423</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.0526000000000001E-2</c:v>
+                  <c:v>0.13986100000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7965999999999997E-2</c:v>
+                  <c:v>0.159299</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0332999999999998E-2</c:v>
+                  <c:v>0.16650200000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.5714000000000004E-2</c:v>
+                  <c:v>0.213918</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0584000000000003E-2</c:v>
+                  <c:v>0.22587099999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.7378000000000006E-2</c:v>
+                  <c:v>0.29864499999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.104379</c:v>
+                  <c:v>0.276472</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.122196</c:v>
+                  <c:v>0.35831099999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.127136</c:v>
+                  <c:v>0.37284400000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.14835699999999999</c:v>
+                  <c:v>0.44512499999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.148589</c:v>
+                  <c:v>0.44814199999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.18328</c:v>
+                  <c:v>0.55038699999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.191085</c:v>
+                  <c:v>0.56964700000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.21926799999999999</c:v>
+                  <c:v>0.67419899999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.21740599999999999</c:v>
+                  <c:v>0.66160300000000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.25884099999999999</c:v>
+                  <c:v>0.80341099999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.27468399999999998</c:v>
+                  <c:v>0.82947400000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.30058499999999999</c:v>
+                  <c:v>0.92977500000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.30350199999999999</c:v>
+                  <c:v>0.94144000000000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.35108099999999998</c:v>
+                  <c:v>1.106779</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.35618499999999997</c:v>
+                  <c:v>1.1048640000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.403501</c:v>
+                  <c:v>1.304365</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.39087499999999997</c:v>
+                  <c:v>1.220858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4300,11 +4302,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="91885504"/>
-        <c:axId val="91886080"/>
+        <c:axId val="45879232"/>
+        <c:axId val="45879808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91885504"/>
+        <c:axId val="45879232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -4334,12 +4336,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91886080"/>
+        <c:crossAx val="45879808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91886080"/>
+        <c:axId val="45879808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -4370,7 +4372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91885504"/>
+        <c:crossAx val="45879232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4716,8 +4718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L568"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="N400" sqref="N400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16974,3444 +16976,3464 @@
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A429" t="s">
-        <v>27</v>
-      </c>
-      <c r="B429" t="s">
+      <c r="A429" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="2"/>
+      <c r="F429" s="2"/>
+      <c r="G429" s="2"/>
+      <c r="H429" s="2"/>
+      <c r="I429" s="2"/>
+      <c r="J429" s="2"/>
+      <c r="K429" s="2"/>
+      <c r="L429" s="2"/>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A430" t="s">
+      <c r="A430" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D430" t="s">
-        <v>16</v>
-      </c>
-      <c r="E430" t="s">
+      <c r="D430" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E430" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F430" t="s">
+      <c r="F430" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G430" t="s">
+      <c r="G430" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H430" t="s">
+      <c r="H430" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I430" t="s">
+      <c r="I430" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J430" t="s">
+      <c r="J430" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K430" t="s">
+      <c r="K430" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L430" t="s">
+      <c r="L430" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A431">
+      <c r="A431" s="2">
         <v>1</v>
       </c>
-      <c r="B431">
-        <v>8.6717000000000002E-2</v>
-      </c>
-      <c r="C431">
-        <v>1.8600000000000001E-3</v>
-      </c>
-      <c r="D431">
-        <v>1.534E-3</v>
-      </c>
-      <c r="E431">
-        <v>3.3100000000000002E-4</v>
-      </c>
-      <c r="F431">
+      <c r="B431" s="2">
+        <v>8.5403999999999994E-2</v>
+      </c>
+      <c r="C431" s="2">
+        <v>1.66E-3</v>
+      </c>
+      <c r="D431" s="2">
+        <v>1.235E-3</v>
+      </c>
+      <c r="E431" s="2">
+        <v>2.8899999999999998E-4</v>
+      </c>
+      <c r="F431" s="2">
+        <v>1.21E-4</v>
+      </c>
+      <c r="G431" s="2">
+        <v>3.5599999999999998E-4</v>
+      </c>
+      <c r="H431" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="I431" s="2">
+        <v>3.6999999999999998E-5</v>
+      </c>
+      <c r="J431" s="2">
+        <v>16</v>
+      </c>
+      <c r="K431" s="2">
+        <v>2.3059999999999999E-3</v>
+      </c>
+      <c r="L431" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
+        <v>25</v>
+      </c>
+      <c r="B432" s="2">
+        <v>8.4504999999999997E-2</v>
+      </c>
+      <c r="C432" s="2">
+        <v>8.6399999999999997E-4</v>
+      </c>
+      <c r="D432" s="2">
+        <v>2.2599999999999999E-4</v>
+      </c>
+      <c r="E432" s="2">
+        <v>2.5599999999999999E-4</v>
+      </c>
+      <c r="F432" s="2">
+        <v>1.2300000000000001E-4</v>
+      </c>
+      <c r="G432" s="2">
+        <v>3.4400000000000001E-4</v>
+      </c>
+      <c r="H432" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="I432" s="2">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="J432" s="2">
+        <v>16</v>
+      </c>
+      <c r="K432" s="2">
+        <v>1.464E-3</v>
+      </c>
+      <c r="L432" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>50</v>
+      </c>
+      <c r="B433" s="2">
+        <v>8.5225999999999996E-2</v>
+      </c>
+      <c r="C433" s="2">
+        <v>1.016E-3</v>
+      </c>
+      <c r="D433" s="2">
+        <v>2.6499999999999999E-4</v>
+      </c>
+      <c r="E433" s="2">
+        <v>3.3199999999999999E-4</v>
+      </c>
+      <c r="F433" s="2">
+        <v>1.73E-4</v>
+      </c>
+      <c r="G433" s="2">
+        <v>4.4000000000000002E-4</v>
+      </c>
+      <c r="H433" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="I433" s="2">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="J433" s="2">
+        <v>16</v>
+      </c>
+      <c r="K433" s="2">
+        <v>1.787E-3</v>
+      </c>
+      <c r="L433" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>75</v>
+      </c>
+      <c r="B434" s="2">
+        <v>8.4576999999999999E-2</v>
+      </c>
+      <c r="C434" s="2">
+        <v>1.1069999999999999E-3</v>
+      </c>
+      <c r="D434" s="2">
+        <v>1.36E-4</v>
+      </c>
+      <c r="E434" s="2">
+        <v>3.8699999999999997E-4</v>
+      </c>
+      <c r="F434" s="2">
+        <v>2.0699999999999999E-4</v>
+      </c>
+      <c r="G434" s="2">
+        <v>4.66E-4</v>
+      </c>
+      <c r="H434" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="I434" s="2">
+        <v>8.3999999999999995E-5</v>
+      </c>
+      <c r="J434" s="2">
+        <v>16</v>
+      </c>
+      <c r="K434" s="2">
+        <v>1.9599999999999999E-3</v>
+      </c>
+      <c r="L434" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>100</v>
+      </c>
+      <c r="B435" s="2">
+        <v>8.7343000000000004E-2</v>
+      </c>
+      <c r="C435" s="2">
+        <v>6.0099999999999997E-4</v>
+      </c>
+      <c r="D435" s="2">
+        <v>4.8099999999999998E-4</v>
+      </c>
+      <c r="E435" s="2">
+        <v>2.8899999999999998E-4</v>
+      </c>
+      <c r="F435" s="2">
+        <v>1.74E-4</v>
+      </c>
+      <c r="G435" s="2">
+        <v>2.24E-4</v>
+      </c>
+      <c r="H435" s="2">
+        <v>1.36E-4</v>
+      </c>
+      <c r="I435" s="2">
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="J435" s="2">
+        <v>16</v>
+      </c>
+      <c r="K435" s="2">
+        <v>1.114E-3</v>
+      </c>
+      <c r="L435" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>200</v>
+      </c>
+      <c r="B436" s="2">
+        <v>8.4940000000000002E-2</v>
+      </c>
+      <c r="C436" s="2">
+        <v>8.9400000000000005E-4</v>
+      </c>
+      <c r="D436" s="2">
+        <v>3.8299999999999999E-4</v>
+      </c>
+      <c r="E436" s="2">
+        <v>6.7699999999999998E-4</v>
+      </c>
+      <c r="F436" s="2">
+        <v>2.5999999999999998E-4</v>
+      </c>
+      <c r="G436" s="2">
+        <v>4.2299999999999998E-4</v>
+      </c>
+      <c r="H436" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="I436" s="2">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="J436" s="2">
+        <v>16</v>
+      </c>
+      <c r="K436" s="2">
+        <v>1.9940000000000001E-3</v>
+      </c>
+      <c r="L436" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>300</v>
+      </c>
+      <c r="B437" s="2">
+        <v>9.0005000000000002E-2</v>
+      </c>
+      <c r="C437" s="2">
+        <v>1.24E-3</v>
+      </c>
+      <c r="D437" s="2">
+        <v>3.0600000000000001E-4</v>
+      </c>
+      <c r="E437" s="2">
+        <v>1.1950000000000001E-3</v>
+      </c>
+      <c r="F437" s="2">
+        <v>3.0899999999999998E-4</v>
+      </c>
+      <c r="G437" s="2">
+        <v>2.0939999999999999E-3</v>
+      </c>
+      <c r="H437" s="2">
+        <v>2.215E-3</v>
+      </c>
+      <c r="I437" s="2">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="J437" s="2">
+        <v>16</v>
+      </c>
+      <c r="K437" s="2">
+        <v>4.529E-3</v>
+      </c>
+      <c r="L437" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>400</v>
+      </c>
+      <c r="B438" s="2">
+        <v>8.5852999999999999E-2</v>
+      </c>
+      <c r="C438" s="2">
+        <v>3.029E-3</v>
+      </c>
+      <c r="D438" s="2">
+        <v>2.0010000000000002E-3</v>
+      </c>
+      <c r="E438" s="2">
+        <v>1.57E-3</v>
+      </c>
+      <c r="F438" s="2">
+        <v>3.1799999999999998E-4</v>
+      </c>
+      <c r="G438" s="2">
+        <v>6.3599999999999996E-4</v>
+      </c>
+      <c r="H438" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="I438" s="2">
+        <v>1.02E-4</v>
+      </c>
+      <c r="J438" s="2">
+        <v>16</v>
+      </c>
+      <c r="K438" s="2">
+        <v>5.2350000000000001E-3</v>
+      </c>
+      <c r="L438" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <v>500</v>
+      </c>
+      <c r="B439" s="2">
+        <v>8.5868E-2</v>
+      </c>
+      <c r="C439" s="2">
+        <v>1.7149999999999999E-3</v>
+      </c>
+      <c r="D439" s="2">
+        <v>3.0600000000000001E-4</v>
+      </c>
+      <c r="E439" s="2">
+        <v>3.0170000000000002E-3</v>
+      </c>
+      <c r="F439" s="2">
+        <v>2.5399999999999999E-4</v>
+      </c>
+      <c r="G439" s="2">
+        <v>8.52E-4</v>
+      </c>
+      <c r="H439" s="2">
+        <v>1.5300000000000001E-4</v>
+      </c>
+      <c r="I439" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="J439" s="2">
+        <v>16</v>
+      </c>
+      <c r="K439" s="2">
+        <v>5.5849999999999997E-3</v>
+      </c>
+      <c r="L439" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>600</v>
+      </c>
+      <c r="B440" s="2">
+        <v>8.6295999999999998E-2</v>
+      </c>
+      <c r="C440" s="2">
+        <v>2.2360000000000001E-3</v>
+      </c>
+      <c r="D440" s="2">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="E440" s="2">
+        <v>4.725E-3</v>
+      </c>
+      <c r="F440" s="2">
+        <v>2.81E-4</v>
+      </c>
+      <c r="G440" s="2">
+        <v>1.011E-3</v>
+      </c>
+      <c r="H440" s="2">
+        <v>1.9599999999999999E-4</v>
+      </c>
+      <c r="I440" s="2">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="J440" s="2">
+        <v>16</v>
+      </c>
+      <c r="K440" s="2">
+        <v>7.9729999999999992E-3</v>
+      </c>
+      <c r="L440" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>700</v>
+      </c>
+      <c r="B441" s="2">
+        <v>8.5400000000000004E-2</v>
+      </c>
+      <c r="C441" s="2">
+        <v>2.7750000000000001E-3</v>
+      </c>
+      <c r="D441" s="2">
+        <v>5.6499999999999996E-4</v>
+      </c>
+      <c r="E441" s="2">
+        <v>7.5490000000000002E-3</v>
+      </c>
+      <c r="F441" s="2">
+        <v>2.3499999999999999E-4</v>
+      </c>
+      <c r="G441" s="2">
+        <v>1.2260000000000001E-3</v>
+      </c>
+      <c r="H441" s="2">
+        <v>1.83E-4</v>
+      </c>
+      <c r="I441" s="2">
+        <v>4.1E-5</v>
+      </c>
+      <c r="J441" s="2">
+        <v>16</v>
+      </c>
+      <c r="K441" s="2">
+        <v>1.155E-2</v>
+      </c>
+      <c r="L441" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>800</v>
+      </c>
+      <c r="B442" s="2">
+        <v>8.6248000000000005E-2</v>
+      </c>
+      <c r="C442" s="2">
+        <v>3.82E-3</v>
+      </c>
+      <c r="D442" s="2">
+        <v>6.5899999999999997E-4</v>
+      </c>
+      <c r="E442" s="2">
+        <v>8.9709999999999998E-3</v>
+      </c>
+      <c r="F442" s="2">
+        <v>3.2699999999999998E-4</v>
+      </c>
+      <c r="G442" s="2">
+        <v>1.48E-3</v>
+      </c>
+      <c r="H442" s="2">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="I442" s="2">
+        <v>8.8999999999999995E-5</v>
+      </c>
+      <c r="J442" s="2">
+        <v>16</v>
+      </c>
+      <c r="K442" s="2">
+        <v>1.4271000000000001E-2</v>
+      </c>
+      <c r="L442" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <v>900</v>
+      </c>
+      <c r="B443" s="2">
+        <v>0.11133700000000001</v>
+      </c>
+      <c r="C443" s="2">
+        <v>3.9029999999999998E-3</v>
+      </c>
+      <c r="D443" s="2">
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="E443" s="2">
+        <v>1.6163E-2</v>
+      </c>
+      <c r="F443" s="2">
+        <v>3.1199999999999999E-4</v>
+      </c>
+      <c r="G443" s="2">
+        <v>1.8990000000000001E-3</v>
+      </c>
+      <c r="H443" s="2">
+        <v>2.99E-4</v>
+      </c>
+      <c r="I443" s="2">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="J443" s="2">
+        <v>16</v>
+      </c>
+      <c r="K443" s="2">
+        <v>2.1964000000000001E-2</v>
+      </c>
+      <c r="L443" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B444" s="2">
+        <v>0.109273</v>
+      </c>
+      <c r="C444" s="2">
+        <v>4.8780000000000004E-3</v>
+      </c>
+      <c r="D444" s="2">
+        <v>7.0200000000000004E-4</v>
+      </c>
+      <c r="E444" s="2">
+        <v>1.9449000000000001E-2</v>
+      </c>
+      <c r="F444" s="2">
+        <v>3.5599999999999998E-4</v>
+      </c>
+      <c r="G444" s="2">
+        <v>2.258E-3</v>
+      </c>
+      <c r="H444" s="2">
+        <v>3.1599999999999998E-4</v>
+      </c>
+      <c r="I444" s="2">
+        <v>4.8999999999999998E-5</v>
+      </c>
+      <c r="J444" s="2">
+        <v>16</v>
+      </c>
+      <c r="K444" s="2">
+        <v>2.6584E-2</v>
+      </c>
+      <c r="L444" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>1100</v>
+      </c>
+      <c r="B445" s="2">
+        <v>8.7356000000000003E-2</v>
+      </c>
+      <c r="C445" s="2">
+        <v>5.6820000000000004E-3</v>
+      </c>
+      <c r="D445" s="2">
+        <v>5.8299999999999997E-4</v>
+      </c>
+      <c r="E445" s="2">
+        <v>2.7563000000000001E-2</v>
+      </c>
+      <c r="F445" s="2">
+        <v>2.8699999999999998E-4</v>
+      </c>
+      <c r="G445" s="2">
+        <v>2.7030000000000001E-3</v>
+      </c>
+      <c r="H445" s="2">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="I445" s="2">
+        <v>6.8999999999999997E-5</v>
+      </c>
+      <c r="J445" s="2">
+        <v>16</v>
+      </c>
+      <c r="K445" s="2">
+        <v>3.5947E-2</v>
+      </c>
+      <c r="L445" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B446" s="2">
+        <v>8.8535000000000003E-2</v>
+      </c>
+      <c r="C446" s="2">
+        <v>6.9880000000000003E-3</v>
+      </c>
+      <c r="D446" s="2">
+        <v>6.7100000000000005E-4</v>
+      </c>
+      <c r="E446" s="2">
+        <v>2.9499000000000001E-2</v>
+      </c>
+      <c r="F446" s="2">
+        <v>4.4499999999999997E-4</v>
+      </c>
+      <c r="G446" s="2">
+        <v>3.4160000000000002E-3</v>
+      </c>
+      <c r="H446" s="2">
+        <v>9.5799999999999998E-4</v>
+      </c>
+      <c r="I446" s="2">
+        <v>4.8000000000000001E-5</v>
+      </c>
+      <c r="J446" s="2">
+        <v>16</v>
+      </c>
+      <c r="K446" s="2">
+        <v>3.9903000000000001E-2</v>
+      </c>
+      <c r="L446" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>1300</v>
+      </c>
+      <c r="B447" s="2">
+        <v>8.5722999999999994E-2</v>
+      </c>
+      <c r="C447" s="2">
+        <v>8.0239999999999999E-3</v>
+      </c>
+      <c r="D447" s="2">
+        <v>7.6099999999999996E-4</v>
+      </c>
+      <c r="E447" s="2">
+        <v>4.5748999999999998E-2</v>
+      </c>
+      <c r="F447" s="2">
+        <v>3.8499999999999998E-4</v>
+      </c>
+      <c r="G447" s="2">
+        <v>3.5660000000000002E-3</v>
+      </c>
+      <c r="H447" s="2">
+        <v>5.4699999999999996E-4</v>
+      </c>
+      <c r="I447" s="2">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="J447" s="2">
+        <v>16</v>
+      </c>
+      <c r="K447" s="2">
+        <v>5.7339000000000001E-2</v>
+      </c>
+      <c r="L447" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>1400</v>
+      </c>
+      <c r="B448" s="2">
+        <v>8.5042000000000006E-2</v>
+      </c>
+      <c r="C448" s="2">
+        <v>8.9940000000000003E-3</v>
+      </c>
+      <c r="D448" s="2">
+        <v>9.0799999999999995E-4</v>
+      </c>
+      <c r="E448" s="2">
+        <v>5.1214000000000003E-2</v>
+      </c>
+      <c r="F448" s="2">
+        <v>5.53E-4</v>
+      </c>
+      <c r="G448" s="2">
+        <v>4.0990000000000002E-3</v>
+      </c>
+      <c r="H448" s="2">
+        <v>7.3499999999999998E-4</v>
+      </c>
+      <c r="I448" s="2">
+        <v>4.8999999999999998E-5</v>
+      </c>
+      <c r="J448" s="2">
+        <v>16</v>
+      </c>
+      <c r="K448" s="2">
+        <v>6.4307000000000003E-2</v>
+      </c>
+      <c r="L448" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>1500</v>
+      </c>
+      <c r="B449" s="2">
+        <v>8.8484999999999994E-2</v>
+      </c>
+      <c r="C449" s="2">
+        <v>1.04E-2</v>
+      </c>
+      <c r="D449" s="2">
+        <v>8.5099999999999998E-4</v>
+      </c>
+      <c r="E449" s="2">
+        <v>6.8477999999999997E-2</v>
+      </c>
+      <c r="F449" s="2">
+        <v>8.2600000000000002E-4</v>
+      </c>
+      <c r="G449" s="2">
+        <v>4.6039999999999996E-3</v>
+      </c>
+      <c r="H449" s="2">
+        <v>7.2800000000000002E-4</v>
+      </c>
+      <c r="I449" s="2">
+        <v>5.1999999999999997E-5</v>
+      </c>
+      <c r="J449" s="2">
+        <v>16</v>
+      </c>
+      <c r="K449" s="2">
+        <v>8.3482000000000001E-2</v>
+      </c>
+      <c r="L449" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>1600</v>
+      </c>
+      <c r="B450" s="2">
+        <v>8.5188E-2</v>
+      </c>
+      <c r="C450" s="2">
+        <v>1.1733E-2</v>
+      </c>
+      <c r="D450" s="2">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="E450" s="2">
+        <v>6.8805000000000005E-2</v>
+      </c>
+      <c r="F450" s="2">
+        <v>1.0070000000000001E-3</v>
+      </c>
+      <c r="G450" s="2">
+        <v>5.156E-3</v>
+      </c>
+      <c r="H450" s="2">
+        <v>8.0500000000000005E-4</v>
+      </c>
+      <c r="I450" s="2">
+        <v>2.6699999999999998E-4</v>
+      </c>
+      <c r="J450" s="2">
+        <v>16</v>
+      </c>
+      <c r="K450" s="2">
+        <v>8.5694000000000006E-2</v>
+      </c>
+      <c r="L450" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>1700</v>
+      </c>
+      <c r="B451" s="2">
+        <v>8.7481000000000003E-2</v>
+      </c>
+      <c r="C451" s="2">
+        <v>1.2911000000000001E-2</v>
+      </c>
+      <c r="D451" s="2">
+        <v>1.183E-3</v>
+      </c>
+      <c r="E451" s="2">
+        <v>9.8851999999999995E-2</v>
+      </c>
+      <c r="F451" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="G451" s="2">
+        <v>5.6600000000000001E-3</v>
+      </c>
+      <c r="H451" s="2">
+        <v>9.1799999999999998E-4</v>
+      </c>
+      <c r="I451" s="2">
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="J451" s="2">
+        <v>16</v>
+      </c>
+      <c r="K451" s="2">
+        <v>0.117423</v>
+      </c>
+      <c r="L451" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B452" s="2">
+        <v>8.5898000000000002E-2</v>
+      </c>
+      <c r="C452" s="2">
+        <v>1.4511E-2</v>
+      </c>
+      <c r="D452" s="2">
+        <v>1.284E-3</v>
+      </c>
+      <c r="E452" s="2">
+        <v>0.119034</v>
+      </c>
+      <c r="F452" s="2">
+        <v>6.1899999999999998E-4</v>
+      </c>
+      <c r="G452" s="2">
+        <v>6.3160000000000004E-3</v>
+      </c>
+      <c r="H452" s="2">
+        <v>1.0660000000000001E-3</v>
+      </c>
+      <c r="I452" s="2">
+        <v>5.6400000000000005E-4</v>
+      </c>
+      <c r="J452" s="2">
+        <v>16</v>
+      </c>
+      <c r="K452" s="2">
+        <v>0.13986100000000001</v>
+      </c>
+      <c r="L452" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <v>1900</v>
+      </c>
+      <c r="B453" s="2">
+        <v>8.5637000000000005E-2</v>
+      </c>
+      <c r="C453" s="2">
+        <v>1.6145E-2</v>
+      </c>
+      <c r="D453" s="2">
+        <v>1.5449999999999999E-3</v>
+      </c>
+      <c r="E453" s="2">
+        <v>0.13619500000000001</v>
+      </c>
+      <c r="F453" s="2">
+        <v>9.3000000000000005E-4</v>
+      </c>
+      <c r="G453" s="2">
+        <v>6.9579999999999998E-3</v>
+      </c>
+      <c r="H453" s="2">
+        <v>1.2229999999999999E-3</v>
+      </c>
+      <c r="I453" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J453" s="2">
+        <v>16</v>
+      </c>
+      <c r="K453" s="2">
+        <v>0.159299</v>
+      </c>
+      <c r="L453" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B454" s="2">
+        <v>8.5680000000000006E-2</v>
+      </c>
+      <c r="C454" s="2">
+        <v>1.7350000000000001E-2</v>
+      </c>
+      <c r="D454" s="2">
+        <v>1.622E-3</v>
+      </c>
+      <c r="E454" s="2">
+        <v>0.14154600000000001</v>
+      </c>
+      <c r="F454" s="2">
+        <v>6.8999999999999997E-4</v>
+      </c>
+      <c r="G454" s="2">
+        <v>7.607E-3</v>
+      </c>
+      <c r="H454" s="2">
+        <v>1.2930000000000001E-3</v>
+      </c>
+      <c r="I454" s="2">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="J454" s="2">
+        <v>16</v>
+      </c>
+      <c r="K454" s="2">
+        <v>0.16650200000000001</v>
+      </c>
+      <c r="L454" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>2100</v>
+      </c>
+      <c r="B455" s="2">
+        <v>0.10169400000000001</v>
+      </c>
+      <c r="C455" s="2">
+        <v>1.9369000000000001E-2</v>
+      </c>
+      <c r="D455" s="2">
+        <v>2.1610000000000002E-3</v>
+      </c>
+      <c r="E455" s="2">
+        <v>0.185752</v>
+      </c>
+      <c r="F455" s="2">
+        <v>1.1559999999999999E-3</v>
+      </c>
+      <c r="G455" s="2">
+        <v>8.7969999999999993E-3</v>
+      </c>
+      <c r="H455" s="2">
+        <v>1.7669999999999999E-3</v>
+      </c>
+      <c r="I455" s="2">
+        <v>3.2400000000000001E-4</v>
+      </c>
+      <c r="J455" s="2">
+        <v>16</v>
+      </c>
+      <c r="K455" s="2">
+        <v>0.213918</v>
+      </c>
+      <c r="L455" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A456" s="2">
+        <v>2200</v>
+      </c>
+      <c r="B456" s="2">
+        <v>8.5036E-2</v>
+      </c>
+      <c r="C456" s="2">
+        <v>2.0507000000000001E-2</v>
+      </c>
+      <c r="D456" s="2">
+        <v>2.137E-3</v>
+      </c>
+      <c r="E456" s="2">
+        <v>0.195575</v>
+      </c>
+      <c r="F456" s="2">
+        <v>1.2650000000000001E-3</v>
+      </c>
+      <c r="G456" s="2">
+        <v>9.7900000000000001E-3</v>
+      </c>
+      <c r="H456" s="2">
+        <v>2.0339999999999998E-3</v>
+      </c>
+      <c r="I456" s="2">
+        <v>6.4999999999999994E-5</v>
+      </c>
+      <c r="J456" s="2">
+        <v>16</v>
+      </c>
+      <c r="K456" s="2">
+        <v>0.22587099999999999</v>
+      </c>
+      <c r="L456" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
+        <v>2300</v>
+      </c>
+      <c r="B457" s="2">
+        <v>8.4679000000000004E-2</v>
+      </c>
+      <c r="C457" s="2">
+        <v>2.2353000000000001E-2</v>
+      </c>
+      <c r="D457" s="2">
+        <v>2.0270000000000002E-3</v>
+      </c>
+      <c r="E457" s="2">
+        <v>0.26579900000000001</v>
+      </c>
+      <c r="F457" s="2">
+        <v>1.1969999999999999E-3</v>
+      </c>
+      <c r="G457" s="2">
+        <v>1.0494E-2</v>
+      </c>
+      <c r="H457" s="2">
+        <v>2.0349999999999999E-3</v>
+      </c>
+      <c r="I457" s="2">
+        <v>7.7999999999999999E-5</v>
+      </c>
+      <c r="J457" s="2">
+        <v>16</v>
+      </c>
+      <c r="K457" s="2">
+        <v>0.29864499999999999</v>
+      </c>
+      <c r="L457" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A458" s="2">
+        <v>2400</v>
+      </c>
+      <c r="B458" s="2">
+        <v>8.5622000000000004E-2</v>
+      </c>
+      <c r="C458" s="2">
+        <v>2.4246E-2</v>
+      </c>
+      <c r="D458" s="2">
+        <v>2.32E-3</v>
+      </c>
+      <c r="E458" s="2">
+        <v>0.24049300000000001</v>
+      </c>
+      <c r="F458" s="2">
+        <v>6.4099999999999997E-4</v>
+      </c>
+      <c r="G458" s="2">
+        <v>1.1733E-2</v>
+      </c>
+      <c r="H458" s="2">
+        <v>2.5560000000000001E-3</v>
+      </c>
+      <c r="I458" s="2">
+        <v>6.8999999999999997E-5</v>
+      </c>
+      <c r="J458" s="2">
+        <v>16</v>
+      </c>
+      <c r="K458" s="2">
+        <v>0.276472</v>
+      </c>
+      <c r="L458" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A459" s="2">
+        <v>2500</v>
+      </c>
+      <c r="B459" s="2">
+        <v>0.110302</v>
+      </c>
+      <c r="C459" s="2">
+        <v>2.8140999999999999E-2</v>
+      </c>
+      <c r="D459" s="2">
+        <v>1.936E-3</v>
+      </c>
+      <c r="E459" s="2">
+        <v>0.31759799999999999</v>
+      </c>
+      <c r="F459" s="2">
+        <v>6.4000000000000005E-4</v>
+      </c>
+      <c r="G459" s="2">
+        <v>1.2572E-2</v>
+      </c>
+      <c r="H459" s="2">
+        <v>2.7650000000000001E-3</v>
+      </c>
+      <c r="I459" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J459" s="2">
+        <v>16</v>
+      </c>
+      <c r="K459" s="2">
+        <v>0.35831099999999999</v>
+      </c>
+      <c r="L459" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A460" s="2">
+        <v>2600</v>
+      </c>
+      <c r="B460" s="2">
+        <v>0.11531</v>
+      </c>
+      <c r="C460" s="2">
+        <v>2.7979E-2</v>
+      </c>
+      <c r="D460" s="2">
+        <v>2.5309999999999998E-3</v>
+      </c>
+      <c r="E460" s="2">
+        <v>0.33137100000000003</v>
+      </c>
+      <c r="F460" s="2">
+        <v>4.1E-5</v>
+      </c>
+      <c r="G460" s="2">
+        <v>1.3494000000000001E-2</v>
+      </c>
+      <c r="H460" s="2">
+        <v>2.9710000000000001E-3</v>
+      </c>
+      <c r="I460" s="2">
+        <v>5.5999999999999999E-5</v>
+      </c>
+      <c r="J460" s="2">
+        <v>16</v>
+      </c>
+      <c r="K460" s="2">
+        <v>0.37284400000000001</v>
+      </c>
+      <c r="L460" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A461" s="2">
+        <v>2700</v>
+      </c>
+      <c r="B461" s="2">
+        <v>8.7032999999999999E-2</v>
+      </c>
+      <c r="C461" s="2">
+        <v>3.1838999999999999E-2</v>
+      </c>
+      <c r="D461" s="2">
+        <v>2.2729999999999998E-3</v>
+      </c>
+      <c r="E461" s="2">
+        <v>0.39863700000000002</v>
+      </c>
+      <c r="F461" s="2">
+        <v>6.7100000000000005E-4</v>
+      </c>
+      <c r="G461" s="2">
+        <v>1.4649000000000001E-2</v>
+      </c>
+      <c r="H461" s="2">
+        <v>3.4069999999999999E-3</v>
+      </c>
+      <c r="I461" s="2">
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="J461" s="2">
+        <v>16</v>
+      </c>
+      <c r="K461" s="2">
+        <v>0.44512499999999999</v>
+      </c>
+      <c r="L461" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A462" s="2">
+        <v>2800</v>
+      </c>
+      <c r="B462" s="2">
+        <v>0.116865</v>
+      </c>
+      <c r="C462" s="2">
+        <v>3.2746999999999998E-2</v>
+      </c>
+      <c r="D462" s="2">
+        <v>2.545E-3</v>
+      </c>
+      <c r="E462" s="2">
+        <v>0.39839799999999997</v>
+      </c>
+      <c r="F462" s="2">
+        <v>1.073E-3</v>
+      </c>
+      <c r="G462" s="2">
+        <v>1.6997999999999999E-2</v>
+      </c>
+      <c r="H462" s="2">
+        <v>5.1910000000000003E-3</v>
+      </c>
+      <c r="I462" s="2">
+        <v>4.8999999999999998E-5</v>
+      </c>
+      <c r="J462" s="2">
+        <v>16</v>
+      </c>
+      <c r="K462" s="2">
+        <v>0.44814199999999998</v>
+      </c>
+      <c r="L462" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A463" s="2">
+        <v>2900</v>
+      </c>
+      <c r="B463" s="2">
+        <v>0.10688400000000001</v>
+      </c>
+      <c r="C463" s="2">
+        <v>3.7828000000000001E-2</v>
+      </c>
+      <c r="D463" s="2">
+        <v>1.6720000000000001E-3</v>
+      </c>
+      <c r="E463" s="2">
+        <v>0.49351</v>
+      </c>
+      <c r="F463" s="2">
+        <v>1.5759999999999999E-3</v>
+      </c>
+      <c r="G463" s="2">
+        <v>1.9049E-2</v>
+      </c>
+      <c r="H463" s="2">
+        <v>3.5959999999999998E-3</v>
+      </c>
+      <c r="I463" s="2">
+        <v>1.6899999999999999E-4</v>
+      </c>
+      <c r="J463" s="2">
+        <v>16</v>
+      </c>
+      <c r="K463" s="2">
+        <v>0.55038699999999996</v>
+      </c>
+      <c r="L463" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A464" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B464" s="2">
+        <v>0.115629</v>
+      </c>
+      <c r="C464" s="2">
+        <v>3.9822999999999997E-2</v>
+      </c>
+      <c r="D464" s="2">
+        <v>1.3159999999999999E-3</v>
+      </c>
+      <c r="E464" s="2">
+        <v>0.50205</v>
+      </c>
+      <c r="F464" s="2">
+        <v>4.8799999999999999E-4</v>
+      </c>
+      <c r="G464" s="2">
+        <v>2.7774E-2</v>
+      </c>
+      <c r="H464" s="2">
+        <v>8.4519999999999994E-3</v>
+      </c>
+      <c r="I464" s="2">
+        <v>1.45E-4</v>
+      </c>
+      <c r="J464" s="2">
+        <v>16</v>
+      </c>
+      <c r="K464" s="2">
+        <v>0.56964700000000001</v>
+      </c>
+      <c r="L464" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A465" s="2">
+        <v>3100</v>
+      </c>
+      <c r="B465" s="2">
+        <v>0.101165</v>
+      </c>
+      <c r="C465" s="2">
+        <v>4.2751999999999998E-2</v>
+      </c>
+      <c r="D465" s="2">
+        <v>3.1419999999999998E-3</v>
+      </c>
+      <c r="E465" s="2">
+        <v>0.61014699999999999</v>
+      </c>
+      <c r="F465" s="2">
+        <v>1.614E-3</v>
+      </c>
+      <c r="G465" s="2">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="H465" s="2">
+        <v>3.444E-3</v>
+      </c>
+      <c r="I465" s="2">
+        <v>3.4499999999999998E-4</v>
+      </c>
+      <c r="J465" s="2">
+        <v>16</v>
+      </c>
+      <c r="K465" s="2">
+        <v>0.67419899999999999</v>
+      </c>
+      <c r="L465" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A466" s="2">
+        <v>3200</v>
+      </c>
+      <c r="B466" s="2">
+        <v>0.12012399999999999</v>
+      </c>
+      <c r="C466" s="2">
+        <v>4.5062999999999999E-2</v>
+      </c>
+      <c r="D466" s="2">
+        <v>1.882E-3</v>
+      </c>
+      <c r="E466" s="2">
+        <v>0.58703000000000005</v>
+      </c>
+      <c r="F466" s="2">
+        <v>7.3280000000000003E-3</v>
+      </c>
+      <c r="G466" s="2">
+        <v>2.9509000000000001E-2</v>
+      </c>
+      <c r="H466" s="2">
+        <v>6.7229999999999998E-3</v>
+      </c>
+      <c r="I466" s="2">
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="J466" s="2">
+        <v>16</v>
+      </c>
+      <c r="K466" s="2">
+        <v>0.66160300000000005</v>
+      </c>
+      <c r="L466" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A467" s="2">
+        <v>3300</v>
+      </c>
+      <c r="B467" s="2">
+        <v>0.116064</v>
+      </c>
+      <c r="C467" s="2">
+        <v>4.8417000000000002E-2</v>
+      </c>
+      <c r="D467" s="2">
+        <v>2.1159999999999998E-3</v>
+      </c>
+      <c r="E467" s="2">
+        <v>0.73008200000000001</v>
+      </c>
+      <c r="F467" s="2">
+        <v>3.3599999999999998E-4</v>
+      </c>
+      <c r="G467" s="2">
+        <v>2.4912E-2</v>
+      </c>
+      <c r="H467" s="2">
+        <v>4.6290000000000003E-3</v>
+      </c>
+      <c r="I467" s="2">
+        <v>2.7099999999999997E-4</v>
+      </c>
+      <c r="J467" s="2">
+        <v>16</v>
+      </c>
+      <c r="K467" s="2">
+        <v>0.80341099999999999</v>
+      </c>
+      <c r="L467" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A468" s="2">
+        <v>3400</v>
+      </c>
+      <c r="B468" s="2">
+        <v>0.14681900000000001</v>
+      </c>
+      <c r="C468" s="2">
+        <v>5.1629000000000001E-2</v>
+      </c>
+      <c r="D468" s="2">
+        <v>1.916E-3</v>
+      </c>
+      <c r="E468" s="2">
+        <v>0.75147600000000003</v>
+      </c>
+      <c r="F468" s="2">
+        <v>6.0899999999999995E-4</v>
+      </c>
+      <c r="G468" s="2">
+        <v>2.6370000000000001E-2</v>
+      </c>
+      <c r="H468" s="2">
+        <v>5.1960000000000001E-3</v>
+      </c>
+      <c r="I468" s="2">
+        <v>2.22E-4</v>
+      </c>
+      <c r="J468" s="2">
+        <v>16</v>
+      </c>
+      <c r="K468" s="2">
+        <v>0.82947400000000004</v>
+      </c>
+      <c r="L468" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A469" s="2">
+        <v>3500</v>
+      </c>
+      <c r="B469" s="2">
+        <v>0.111972</v>
+      </c>
+      <c r="C469" s="2">
+        <v>5.5345999999999999E-2</v>
+      </c>
+      <c r="D469" s="2">
+        <v>3.4139999999999999E-3</v>
+      </c>
+      <c r="E469" s="2">
+        <v>0.84721999999999997</v>
+      </c>
+      <c r="F469" s="2">
+        <v>1.3990000000000001E-3</v>
+      </c>
+      <c r="G469" s="2">
+        <v>2.7210000000000002E-2</v>
+      </c>
+      <c r="H469" s="2">
+        <v>4.8180000000000002E-3</v>
+      </c>
+      <c r="I469" s="2">
+        <v>4.3600000000000003E-4</v>
+      </c>
+      <c r="J469" s="2">
+        <v>16</v>
+      </c>
+      <c r="K469" s="2">
+        <v>0.92977500000000002</v>
+      </c>
+      <c r="L469" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A470" s="2">
+        <v>3600</v>
+      </c>
+      <c r="B470" s="2">
+        <v>0.113301</v>
+      </c>
+      <c r="C470" s="2">
+        <v>5.9459999999999999E-2</v>
+      </c>
+      <c r="D470" s="2">
+        <v>2.1210000000000001E-3</v>
+      </c>
+      <c r="E470" s="2">
+        <v>0.85264300000000004</v>
+      </c>
+      <c r="F470" s="2">
+        <v>6.0099999999999997E-4</v>
+      </c>
+      <c r="G470" s="2">
+        <v>2.9337999999999999E-2</v>
+      </c>
+      <c r="H470" s="2">
+        <v>4.666E-3</v>
+      </c>
+      <c r="I470" s="2">
+        <v>2.12E-4</v>
+      </c>
+      <c r="J470" s="2">
+        <v>16</v>
+      </c>
+      <c r="K470" s="2">
+        <v>0.94144000000000005</v>
+      </c>
+      <c r="L470" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A471" s="2">
+        <v>3700</v>
+      </c>
+      <c r="B471" s="2">
+        <v>0.117169</v>
+      </c>
+      <c r="C471" s="2">
+        <v>6.1877000000000001E-2</v>
+      </c>
+      <c r="D471" s="2">
+        <v>3.0279999999999999E-3</v>
+      </c>
+      <c r="E471" s="2">
+        <v>1.014313</v>
+      </c>
+      <c r="F471" s="2">
+        <v>1.4899999999999999E-4</v>
+      </c>
+      <c r="G471" s="2">
+        <v>3.0589000000000002E-2</v>
+      </c>
+      <c r="H471" s="2">
+        <v>4.7780000000000001E-3</v>
+      </c>
+      <c r="I471" s="2">
+        <v>6.4800000000000003E-4</v>
+      </c>
+      <c r="J471" s="2">
+        <v>16</v>
+      </c>
+      <c r="K471" s="2">
+        <v>1.106779</v>
+      </c>
+      <c r="L471" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A472" s="2">
+        <v>3800</v>
+      </c>
+      <c r="B472" s="2">
+        <v>8.7003999999999998E-2</v>
+      </c>
+      <c r="C472" s="2">
+        <v>6.4751000000000003E-2</v>
+      </c>
+      <c r="D472" s="2">
+        <v>2.6919999999999999E-3</v>
+      </c>
+      <c r="E472" s="2">
+        <v>1.0083139999999999</v>
+      </c>
+      <c r="F472" s="2">
+        <v>6.4800000000000003E-4</v>
+      </c>
+      <c r="G472" s="2">
+        <v>3.1799000000000001E-2</v>
+      </c>
+      <c r="H472" s="2">
+        <v>5.1370000000000001E-3</v>
+      </c>
+      <c r="I472" s="2">
+        <v>5.1699999999999999E-4</v>
+      </c>
+      <c r="J472" s="2">
+        <v>16</v>
+      </c>
+      <c r="K472" s="2">
+        <v>1.1048640000000001</v>
+      </c>
+      <c r="L472" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A473" s="2">
+        <v>3900</v>
+      </c>
+      <c r="B473" s="2">
+        <v>0.132602</v>
+      </c>
+      <c r="C473" s="2">
+        <v>8.2910999999999999E-2</v>
+      </c>
+      <c r="D473" s="2">
+        <v>1.6091999999999999E-2</v>
+      </c>
+      <c r="E473" s="2">
+        <v>1.18632</v>
+      </c>
+      <c r="F473" s="2">
+        <v>6.9319999999999998E-3</v>
+      </c>
+      <c r="G473" s="2">
+        <v>3.5133999999999999E-2</v>
+      </c>
+      <c r="H473" s="2">
+        <v>6.4729999999999996E-3</v>
+      </c>
+      <c r="I473" s="2">
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="J473" s="2">
+        <v>16</v>
+      </c>
+      <c r="K473" s="2">
+        <v>1.304365</v>
+      </c>
+      <c r="L473" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A474" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B474" s="2">
+        <v>0.120589</v>
+      </c>
+      <c r="C474" s="2">
+        <v>7.3504E-2</v>
+      </c>
+      <c r="D474" s="2">
+        <v>3.225E-3</v>
+      </c>
+      <c r="E474" s="2">
+        <v>1.1119600000000001</v>
+      </c>
+      <c r="F474" s="2">
+        <v>9.4200000000000002E-4</v>
+      </c>
+      <c r="G474" s="2">
+        <v>3.5393000000000001E-2</v>
+      </c>
+      <c r="H474" s="2">
+        <v>6.1180000000000002E-3</v>
+      </c>
+      <c r="I474" s="2">
+        <v>2.22E-4</v>
+      </c>
+      <c r="J474" s="2">
+        <v>16</v>
+      </c>
+      <c r="K474" s="2">
+        <v>1.220858</v>
+      </c>
+      <c r="L474" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C476" s="1"/>
+      <c r="D476" s="1"/>
+      <c r="E476" s="1"/>
+      <c r="F476" s="1"/>
+      <c r="G476" s="1"/>
+      <c r="H476" s="1"/>
+      <c r="I476" s="1"/>
+      <c r="J476" s="1"/>
+      <c r="K476" s="1"/>
+      <c r="L476" s="1"/>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F477" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K477" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L477" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A478" s="1">
+        <v>1</v>
+      </c>
+      <c r="B478" s="1">
+        <v>0.12526300000000001</v>
+      </c>
+      <c r="C478" s="1">
+        <v>9.0700000000000004E-4</v>
+      </c>
+      <c r="D478" s="1">
+        <v>3.0299999999999999E-4</v>
+      </c>
+      <c r="E478" s="1">
+        <v>3.6200000000000002E-4</v>
+      </c>
+      <c r="F478" s="1">
+        <v>2.4600000000000002E-4</v>
+      </c>
+      <c r="G478" s="1">
+        <v>3.3700000000000001E-4</v>
+      </c>
+      <c r="H478" s="1">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="I478" s="1">
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="J478" s="1">
+        <v>16</v>
+      </c>
+      <c r="K478" s="1">
+        <v>1.606E-3</v>
+      </c>
+      <c r="L478" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A479" s="1">
+        <v>25</v>
+      </c>
+      <c r="B479" s="1">
+        <v>0.135768</v>
+      </c>
+      <c r="C479" s="1">
+        <v>8.6799999999999996E-4</v>
+      </c>
+      <c r="D479" s="1">
+        <v>1.9100000000000001E-4</v>
+      </c>
+      <c r="E479" s="1">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="F479" s="1">
+        <v>1.27E-4</v>
+      </c>
+      <c r="G479" s="1">
+        <v>3.3599999999999998E-4</v>
+      </c>
+      <c r="H479" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="I479" s="1">
+        <v>8.6000000000000003E-5</v>
+      </c>
+      <c r="J479" s="1">
+        <v>16</v>
+      </c>
+      <c r="K479" s="1">
+        <v>1.493E-3</v>
+      </c>
+      <c r="L479" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A480" s="1">
+        <v>50</v>
+      </c>
+      <c r="B480" s="1">
+        <v>0.128104</v>
+      </c>
+      <c r="C480" s="1">
+        <v>8.7000000000000001E-4</v>
+      </c>
+      <c r="D480" s="1">
+        <v>1.5799999999999999E-4</v>
+      </c>
+      <c r="E480" s="1">
+        <v>3.0699999999999998E-4</v>
+      </c>
+      <c r="F480" s="1">
+        <v>1.45E-4</v>
+      </c>
+      <c r="G480" s="1">
+        <v>3.5300000000000002E-4</v>
+      </c>
+      <c r="H480" s="1">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="I480" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="J480" s="1">
+        <v>16</v>
+      </c>
+      <c r="K480" s="1">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="L480" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A481" s="1">
+        <v>75</v>
+      </c>
+      <c r="B481" s="1">
+        <v>0.12692100000000001</v>
+      </c>
+      <c r="C481" s="1">
+        <v>1.0460000000000001E-3</v>
+      </c>
+      <c r="D481" s="1">
+        <v>2.2599999999999999E-4</v>
+      </c>
+      <c r="E481" s="1">
+        <v>4.3300000000000001E-4</v>
+      </c>
+      <c r="F481" s="1">
+        <v>1.2899999999999999E-4</v>
+      </c>
+      <c r="G481" s="1">
+        <v>3.9100000000000002E-4</v>
+      </c>
+      <c r="H481" s="1">
+        <v>1.4E-5</v>
+      </c>
+      <c r="I481" s="1">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="J481" s="1">
+        <v>16</v>
+      </c>
+      <c r="K481" s="1">
+        <v>1.8699999999999999E-3</v>
+      </c>
+      <c r="L481" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A482" s="1">
+        <v>100</v>
+      </c>
+      <c r="B482" s="1">
+        <v>0.13000900000000001</v>
+      </c>
+      <c r="C482" s="1">
+        <v>9.5100000000000002E-4</v>
+      </c>
+      <c r="D482" s="1">
+        <v>1.7200000000000001E-4</v>
+      </c>
+      <c r="E482" s="1">
+        <v>3.4699999999999998E-4</v>
+      </c>
+      <c r="F482" s="1">
+        <v>1.56E-4</v>
+      </c>
+      <c r="G482" s="1">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="H482" s="1">
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="I482" s="1">
+        <v>8.2999999999999998E-5</v>
+      </c>
+      <c r="J482" s="1">
+        <v>16</v>
+      </c>
+      <c r="K482" s="1">
+        <v>1.678E-3</v>
+      </c>
+      <c r="L482" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A483" s="1">
+        <v>200</v>
+      </c>
+      <c r="B483" s="1">
+        <v>0.11853</v>
+      </c>
+      <c r="C483" s="1">
+        <v>1.1019999999999999E-3</v>
+      </c>
+      <c r="D483" s="1">
+        <v>2.3800000000000001E-4</v>
+      </c>
+      <c r="E483" s="1">
+        <v>9.01E-4</v>
+      </c>
+      <c r="F483" s="1">
+        <v>1.7100000000000001E-4</v>
+      </c>
+      <c r="G483" s="1">
+        <v>4.8000000000000001E-4</v>
+      </c>
+      <c r="H483" s="1">
+        <v>3.1999999999999999E-5</v>
+      </c>
+      <c r="I483" s="1">
+        <v>9.1000000000000003E-5</v>
+      </c>
+      <c r="J483" s="1">
+        <v>16</v>
+      </c>
+      <c r="K483" s="1">
+        <v>2.483E-3</v>
+      </c>
+      <c r="L483" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A484" s="1">
+        <v>300</v>
+      </c>
+      <c r="B484" s="1">
+        <v>0.124845</v>
+      </c>
+      <c r="C484" s="1">
+        <v>1.3029999999999999E-3</v>
+      </c>
+      <c r="D484" s="1">
+        <v>2.05E-4</v>
+      </c>
+      <c r="E484" s="1">
+        <v>1.1379999999999999E-3</v>
+      </c>
+      <c r="F484" s="1">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="G431">
-        <v>3.4699999999999998E-4</v>
-      </c>
-      <c r="H431">
+      <c r="G484" s="1">
+        <v>5.6300000000000002E-4</v>
+      </c>
+      <c r="H484" s="1">
         <v>1.2E-5</v>
       </c>
-      <c r="I431">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="J431">
-        <v>16</v>
-      </c>
-      <c r="K431">
-        <v>2.5370000000000002E-3</v>
-      </c>
-      <c r="L431" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A432">
-        <v>25</v>
-      </c>
-      <c r="B432">
-        <v>8.5613999999999996E-2</v>
-      </c>
-      <c r="C432">
-        <v>8.7000000000000001E-4</v>
-      </c>
-      <c r="D432">
-        <v>2.1000000000000001E-4</v>
-      </c>
-      <c r="E432">
-        <v>2.5300000000000002E-4</v>
-      </c>
-      <c r="F432">
-        <v>1.4100000000000001E-4</v>
-      </c>
-      <c r="G432">
-        <v>3.3799999999999998E-4</v>
-      </c>
-      <c r="H432">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="I432">
-        <v>2.9E-5</v>
-      </c>
-      <c r="J432">
-        <v>16</v>
-      </c>
-      <c r="K432">
-        <v>1.462E-3</v>
-      </c>
-      <c r="L432" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A433">
-        <v>50</v>
-      </c>
-      <c r="B433">
-        <v>8.5318000000000005E-2</v>
-      </c>
-      <c r="C433">
-        <v>1.242E-3</v>
-      </c>
-      <c r="D433">
-        <v>2.2000000000000001E-4</v>
-      </c>
-      <c r="E433">
-        <v>4.06E-4</v>
-      </c>
-      <c r="F433">
-        <v>1.56E-4</v>
-      </c>
-      <c r="G433">
+      <c r="I484" s="1">
+        <v>9.3999999999999994E-5</v>
+      </c>
+      <c r="J484" s="1">
+        <v>16</v>
+      </c>
+      <c r="K484" s="1">
+        <v>3.0040000000000002E-3</v>
+      </c>
+      <c r="L484" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A485" s="1">
+        <v>400</v>
+      </c>
+      <c r="B485" s="1">
+        <v>0.129357</v>
+      </c>
+      <c r="C485" s="1">
+        <v>1.6869999999999999E-3</v>
+      </c>
+      <c r="D485" s="1">
+        <v>2.2699999999999999E-4</v>
+      </c>
+      <c r="E485" s="1">
+        <v>2.8739999999999998E-3</v>
+      </c>
+      <c r="F485" s="1">
+        <v>3.1000000000000001E-5</v>
+      </c>
+      <c r="G485" s="1">
+        <v>7.4299999999999995E-4</v>
+      </c>
+      <c r="H485" s="1">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="I485" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J485" s="1">
+        <v>16</v>
+      </c>
+      <c r="K485" s="1">
+        <v>5.3049999999999998E-3</v>
+      </c>
+      <c r="L485" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A486" s="1">
+        <v>500</v>
+      </c>
+      <c r="B486" s="1">
+        <v>0.117951</v>
+      </c>
+      <c r="C486" s="1">
+        <v>2.006E-3</v>
+      </c>
+      <c r="D486" s="1">
+        <v>3.3199999999999999E-4</v>
+      </c>
+      <c r="E486" s="1">
+        <v>4.4229999999999998E-3</v>
+      </c>
+      <c r="F486" s="1">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="G486" s="1">
+        <v>9.9799999999999997E-4</v>
+      </c>
+      <c r="H486" s="1">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="I486" s="1">
+        <v>1.1E-4</v>
+      </c>
+      <c r="J486" s="1">
+        <v>16</v>
+      </c>
+      <c r="K486" s="1">
+        <v>7.4269999999999996E-3</v>
+      </c>
+      <c r="L486" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A487" s="1">
+        <v>600</v>
+      </c>
+      <c r="B487" s="1">
+        <v>0.142985</v>
+      </c>
+      <c r="C487" s="1">
+        <v>2.7030000000000001E-3</v>
+      </c>
+      <c r="D487" s="1">
+        <v>4.0999999999999999E-4</v>
+      </c>
+      <c r="E487" s="1">
+        <v>6.5770000000000004E-3</v>
+      </c>
+      <c r="F487" s="1">
+        <v>3.0299999999999999E-4</v>
+      </c>
+      <c r="G487" s="1">
+        <v>1.297E-3</v>
+      </c>
+      <c r="H487" s="1">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="I487" s="1">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="J487" s="1">
+        <v>16</v>
+      </c>
+      <c r="K487" s="1">
+        <v>1.0577E-2</v>
+      </c>
+      <c r="L487" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A488" s="1">
+        <v>700</v>
+      </c>
+      <c r="B488" s="1">
+        <v>0.14942</v>
+      </c>
+      <c r="C488" s="1">
+        <v>3.2699999999999999E-3</v>
+      </c>
+      <c r="D488" s="1">
+        <v>3.77E-4</v>
+      </c>
+      <c r="E488" s="1">
+        <v>8.9219999999999994E-3</v>
+      </c>
+      <c r="F488" s="1">
+        <v>2.9799999999999998E-4</v>
+      </c>
+      <c r="G488" s="1">
+        <v>1.537E-3</v>
+      </c>
+      <c r="H488" s="1">
+        <v>1.93E-4</v>
+      </c>
+      <c r="I488" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="J488" s="1">
+        <v>16</v>
+      </c>
+      <c r="K488" s="1">
+        <v>1.3729E-2</v>
+      </c>
+      <c r="L488" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A489" s="1">
+        <v>800</v>
+      </c>
+      <c r="B489" s="1">
+        <v>0.13309399999999999</v>
+      </c>
+      <c r="C489" s="1">
+        <v>3.9890000000000004E-3</v>
+      </c>
+      <c r="D489" s="1">
+        <v>5.3200000000000003E-4</v>
+      </c>
+      <c r="E489" s="1">
+        <v>1.6535999999999999E-2</v>
+      </c>
+      <c r="F489" s="1">
+        <v>3.0699999999999998E-4</v>
+      </c>
+      <c r="G489" s="1">
+        <v>1.8929999999999999E-3</v>
+      </c>
+      <c r="H489" s="1">
+        <v>1.8900000000000001E-4</v>
+      </c>
+      <c r="I489" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="J489" s="1">
+        <v>16</v>
+      </c>
+      <c r="K489" s="1">
+        <v>2.2419000000000001E-2</v>
+      </c>
+      <c r="L489" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A490" s="1">
+        <v>900</v>
+      </c>
+      <c r="B490" s="1">
+        <v>0.149391</v>
+      </c>
+      <c r="C490" s="1">
+        <v>6.1219999999999998E-3</v>
+      </c>
+      <c r="D490" s="1">
+        <v>9.7799999999999992E-4</v>
+      </c>
+      <c r="E490" s="1">
+        <v>2.1243999999999999E-2</v>
+      </c>
+      <c r="F490" s="1">
+        <v>4.2999999999999999E-4</v>
+      </c>
+      <c r="G490" s="1">
+        <v>3.993E-3</v>
+      </c>
+      <c r="H490" s="1">
+        <v>1.119E-3</v>
+      </c>
+      <c r="I490" s="1">
+        <v>2.6699999999999998E-4</v>
+      </c>
+      <c r="J490" s="1">
+        <v>16</v>
+      </c>
+      <c r="K490" s="1">
+        <v>3.1358999999999998E-2</v>
+      </c>
+      <c r="L490" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A491" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B491" s="1">
+        <v>0.14102899999999999</v>
+      </c>
+      <c r="C491" s="1">
+        <v>5.9459999999999999E-3</v>
+      </c>
+      <c r="D491" s="1">
+        <v>6.6E-4</v>
+      </c>
+      <c r="E491" s="1">
+        <v>2.8534E-2</v>
+      </c>
+      <c r="F491" s="1">
+        <v>2.1350000000000002E-3</v>
+      </c>
+      <c r="G491" s="1">
+        <v>2.6210000000000001E-3</v>
+      </c>
+      <c r="H491" s="1">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="I491" s="1">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="J491" s="1">
+        <v>16</v>
+      </c>
+      <c r="K491" s="1">
+        <v>3.7101000000000002E-2</v>
+      </c>
+      <c r="L491" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A492" s="1">
+        <v>1100</v>
+      </c>
+      <c r="B492" s="1">
+        <v>0.17397899999999999</v>
+      </c>
+      <c r="C492" s="1">
+        <v>7.1760000000000001E-3</v>
+      </c>
+      <c r="D492" s="1">
+        <v>7.85E-4</v>
+      </c>
+      <c r="E492" s="1">
+        <v>4.1611000000000002E-2</v>
+      </c>
+      <c r="F492" s="1">
+        <v>3.336E-3</v>
+      </c>
+      <c r="G492" s="1">
+        <v>3.2980000000000002E-3</v>
+      </c>
+      <c r="H492" s="1">
+        <v>4.9899999999999999E-4</v>
+      </c>
+      <c r="I492" s="1">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="J492" s="1">
+        <v>16</v>
+      </c>
+      <c r="K492" s="1">
+        <v>5.2084999999999999E-2</v>
+      </c>
+      <c r="L492" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A493" s="1">
+        <v>1200</v>
+      </c>
+      <c r="B493" s="1">
+        <v>0.154613</v>
+      </c>
+      <c r="C493" s="1">
+        <v>8.1309999999999993E-3</v>
+      </c>
+      <c r="D493" s="1">
+        <v>8.5099999999999998E-4</v>
+      </c>
+      <c r="E493" s="1">
+        <v>4.7473000000000001E-2</v>
+      </c>
+      <c r="F493" s="1">
+        <v>2.7339999999999999E-3</v>
+      </c>
+      <c r="G493" s="1">
+        <v>4.0119999999999999E-3</v>
+      </c>
+      <c r="H493" s="1">
+        <v>1.1329999999999999E-3</v>
+      </c>
+      <c r="I493" s="1">
+        <v>7.2999999999999999E-5</v>
+      </c>
+      <c r="J493" s="1">
+        <v>16</v>
+      </c>
+      <c r="K493" s="1">
+        <v>5.9617000000000003E-2</v>
+      </c>
+      <c r="L493" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A494" s="1">
+        <v>1300</v>
+      </c>
+      <c r="B494" s="1">
+        <v>0.152</v>
+      </c>
+      <c r="C494" s="1">
+        <v>1.0123999999999999E-2</v>
+      </c>
+      <c r="D494" s="1">
+        <v>1.1360000000000001E-3</v>
+      </c>
+      <c r="E494" s="1">
+        <v>6.0762999999999998E-2</v>
+      </c>
+      <c r="F494" s="1">
+        <v>3.9639999999999996E-3</v>
+      </c>
+      <c r="G494" s="1">
+        <v>4.1190000000000003E-3</v>
+      </c>
+      <c r="H494" s="1">
+        <v>7.7200000000000001E-4</v>
+      </c>
+      <c r="I494" s="1">
+        <v>6.3999999999999997E-5</v>
+      </c>
+      <c r="J494" s="1">
+        <v>16</v>
+      </c>
+      <c r="K494" s="1">
+        <v>7.5006000000000003E-2</v>
+      </c>
+      <c r="L494" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A495" s="1">
+        <v>1400</v>
+      </c>
+      <c r="B495" s="1">
+        <v>0.16835700000000001</v>
+      </c>
+      <c r="C495" s="1">
+        <v>1.1051999999999999E-2</v>
+      </c>
+      <c r="D495" s="1">
+        <v>8.8999999999999995E-4</v>
+      </c>
+      <c r="E495" s="1">
+        <v>6.9780999999999996E-2</v>
+      </c>
+      <c r="F495" s="1">
+        <v>5.9239999999999996E-3</v>
+      </c>
+      <c r="G495" s="1">
+        <v>4.6369999999999996E-3</v>
+      </c>
+      <c r="H495" s="1">
+        <v>8.43E-4</v>
+      </c>
+      <c r="I495" s="1">
+        <v>6.7000000000000002E-5</v>
+      </c>
+      <c r="J495" s="1">
+        <v>16</v>
+      </c>
+      <c r="K495" s="1">
+        <v>8.5470000000000004E-2</v>
+      </c>
+      <c r="L495" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A496" s="1">
+        <v>1500</v>
+      </c>
+      <c r="B496" s="1">
+        <v>0.161415</v>
+      </c>
+      <c r="C496" s="1">
+        <v>1.2598E-2</v>
+      </c>
+      <c r="D496" s="1">
+        <v>1.0889999999999999E-3</v>
+      </c>
+      <c r="E496" s="1">
+        <v>8.7919999999999998E-2</v>
+      </c>
+      <c r="F496" s="1">
+        <v>5.2400000000000005E-4</v>
+      </c>
+      <c r="G496" s="1">
+        <v>5.2579999999999997E-3</v>
+      </c>
+      <c r="H496" s="1">
+        <v>1.0120000000000001E-3</v>
+      </c>
+      <c r="I496" s="1">
+        <v>9.5000000000000005E-5</v>
+      </c>
+      <c r="J496" s="1">
+        <v>16</v>
+      </c>
+      <c r="K496" s="1">
+        <v>0.105776</v>
+      </c>
+      <c r="L496" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A497" s="1">
+        <v>1600</v>
+      </c>
+      <c r="B497" s="1">
+        <v>0.160022</v>
+      </c>
+      <c r="C497" s="1">
+        <v>1.1782000000000001E-2</v>
+      </c>
+      <c r="D497" s="1">
+        <v>1.359E-3</v>
+      </c>
+      <c r="E497" s="1">
+        <v>9.6079999999999999E-2</v>
+      </c>
+      <c r="F497" s="1">
+        <v>7.2400000000000003E-4</v>
+      </c>
+      <c r="G497" s="1">
+        <v>5.097E-3</v>
+      </c>
+      <c r="H497" s="1">
+        <v>9.4499999999999998E-4</v>
+      </c>
+      <c r="I497" s="1">
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="J497" s="1">
+        <v>16</v>
+      </c>
+      <c r="K497" s="1">
+        <v>0.11296</v>
+      </c>
+      <c r="L497" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A498" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B498" s="1">
+        <v>0.125833</v>
+      </c>
+      <c r="C498" s="1">
+        <v>1.567E-2</v>
+      </c>
+      <c r="D498" s="1">
+        <v>1.366E-3</v>
+      </c>
+      <c r="E498" s="1">
+        <v>0.12150900000000001</v>
+      </c>
+      <c r="F498" s="1">
+        <v>3.1300000000000002E-4</v>
+      </c>
+      <c r="G498" s="1">
+        <v>6.5789999999999998E-3</v>
+      </c>
+      <c r="H498" s="1">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="I498" s="1">
+        <v>8.8999999999999995E-5</v>
+      </c>
+      <c r="J498" s="1">
+        <v>16</v>
+      </c>
+      <c r="K498" s="1">
+        <v>0.143757</v>
+      </c>
+      <c r="L498" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A499" s="1">
+        <v>1800</v>
+      </c>
+      <c r="B499" s="1">
+        <v>0.13294300000000001</v>
+      </c>
+      <c r="C499" s="1">
+        <v>1.7746999999999999E-2</v>
+      </c>
+      <c r="D499" s="1">
+        <v>1.335E-3</v>
+      </c>
+      <c r="E499" s="1">
+        <v>0.158084</v>
+      </c>
+      <c r="F499" s="1">
+        <v>1.099E-2</v>
+      </c>
+      <c r="G499" s="1">
+        <v>7.1289999999999999E-3</v>
+      </c>
+      <c r="H499" s="1">
+        <v>1.48E-3</v>
+      </c>
+      <c r="I499" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J499" s="1">
+        <v>16</v>
+      </c>
+      <c r="K499" s="1">
+        <v>0.18296000000000001</v>
+      </c>
+      <c r="L499" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A500" s="1">
+        <v>1900</v>
+      </c>
+      <c r="B500" s="1">
+        <v>0.12766</v>
+      </c>
+      <c r="C500" s="1">
+        <v>1.9979E-2</v>
+      </c>
+      <c r="D500" s="1">
+        <v>1.204E-3</v>
+      </c>
+      <c r="E500" s="1">
+        <v>0.16515299999999999</v>
+      </c>
+      <c r="F500" s="1">
+        <v>1.0330000000000001E-3</v>
+      </c>
+      <c r="G500" s="1">
+        <v>7.8879999999999992E-3</v>
+      </c>
+      <c r="H500" s="1">
+        <v>1.469E-3</v>
+      </c>
+      <c r="I500" s="1">
+        <v>6.0999999999999999E-5</v>
+      </c>
+      <c r="J500" s="1">
+        <v>16</v>
+      </c>
+      <c r="K500" s="1">
+        <v>0.193019</v>
+      </c>
+      <c r="L500" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A501" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B501" s="1">
+        <v>0.119101</v>
+      </c>
+      <c r="C501" s="1">
+        <v>2.1239000000000001E-2</v>
+      </c>
+      <c r="D501" s="1">
+        <v>1.928E-3</v>
+      </c>
+      <c r="E501" s="1">
+        <v>0.25502799999999998</v>
+      </c>
+      <c r="F501" s="1">
+        <v>2.4014000000000001E-2</v>
+      </c>
+      <c r="G501" s="1">
+        <v>8.3920000000000002E-3</v>
+      </c>
+      <c r="H501" s="1">
+        <v>1.328E-3</v>
+      </c>
+      <c r="I501" s="1">
+        <v>6.3E-5</v>
+      </c>
+      <c r="J501" s="1">
+        <v>16</v>
+      </c>
+      <c r="K501" s="1">
+        <v>0.28466000000000002</v>
+      </c>
+      <c r="L501" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A502" s="1">
+        <v>2100</v>
+      </c>
+      <c r="B502" s="1">
+        <v>0.120423</v>
+      </c>
+      <c r="C502" s="1">
+        <v>2.3078999999999999E-2</v>
+      </c>
+      <c r="D502" s="1">
+        <v>2.1480000000000002E-3</v>
+      </c>
+      <c r="E502" s="1">
+        <v>0.218865</v>
+      </c>
+      <c r="F502" s="1">
+        <v>1.343E-3</v>
+      </c>
+      <c r="G502" s="1">
+        <v>1.0002E-2</v>
+      </c>
+      <c r="H502" s="1">
+        <v>1.7489999999999999E-3</v>
+      </c>
+      <c r="I502" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="J502" s="1">
+        <v>16</v>
+      </c>
+      <c r="K502" s="1">
+        <v>0.25194699999999998</v>
+      </c>
+      <c r="L502" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A503" s="1">
+        <v>2200</v>
+      </c>
+      <c r="B503" s="1">
+        <v>0.132715</v>
+      </c>
+      <c r="C503" s="1">
+        <v>2.5451999999999999E-2</v>
+      </c>
+      <c r="D503" s="1">
+        <v>2.6329999999999999E-3</v>
+      </c>
+      <c r="E503" s="1">
+        <v>0.261326</v>
+      </c>
+      <c r="F503" s="1">
+        <v>1.562E-3</v>
+      </c>
+      <c r="G503" s="1">
+        <v>1.1374E-2</v>
+      </c>
+      <c r="H503" s="1">
+        <v>2.9659999999999999E-3</v>
+      </c>
+      <c r="I503" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="J503" s="1">
+        <v>16</v>
+      </c>
+      <c r="K503" s="1">
+        <v>0.298151</v>
+      </c>
+      <c r="L503" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A504" s="1">
+        <v>2300</v>
+      </c>
+      <c r="B504" s="1">
+        <v>0.13706099999999999</v>
+      </c>
+      <c r="C504" s="1">
+        <v>2.7358E-2</v>
+      </c>
+      <c r="D504" s="1">
+        <v>2.6970000000000002E-3</v>
+      </c>
+      <c r="E504" s="1">
+        <v>0.29153000000000001</v>
+      </c>
+      <c r="F504" s="1">
+        <v>1.5579999999999999E-3</v>
+      </c>
+      <c r="G504" s="1">
+        <v>1.1697000000000001E-2</v>
+      </c>
+      <c r="H504" s="1">
+        <v>2.8449999999999999E-3</v>
+      </c>
+      <c r="I504" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="J504" s="1">
+        <v>16</v>
+      </c>
+      <c r="K504" s="1">
+        <v>0.33058500000000002</v>
+      </c>
+      <c r="L504" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A505" s="1">
+        <v>2400</v>
+      </c>
+      <c r="B505" s="1">
+        <v>0.12265</v>
+      </c>
+      <c r="C505" s="1">
+        <v>2.9794000000000001E-2</v>
+      </c>
+      <c r="D505" s="1">
+        <v>2.8110000000000001E-3</v>
+      </c>
+      <c r="E505" s="1">
+        <v>0.33864699999999998</v>
+      </c>
+      <c r="F505" s="1">
+        <v>2.3319999999999999E-3</v>
+      </c>
+      <c r="G505" s="1">
+        <v>1.3812E-2</v>
+      </c>
+      <c r="H505" s="1">
+        <v>4.7109999999999999E-3</v>
+      </c>
+      <c r="I505" s="1">
+        <v>5.1E-5</v>
+      </c>
+      <c r="J505" s="1">
+        <v>16</v>
+      </c>
+      <c r="K505" s="1">
+        <v>0.38225300000000001</v>
+      </c>
+      <c r="L505" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A506" s="1">
+        <v>2500</v>
+      </c>
+      <c r="B506" s="1">
+        <v>0.143153</v>
+      </c>
+      <c r="C506" s="1">
+        <v>3.2237000000000002E-2</v>
+      </c>
+      <c r="D506" s="1">
+        <v>3.3730000000000001E-3</v>
+      </c>
+      <c r="E506" s="1">
+        <v>0.39970800000000001</v>
+      </c>
+      <c r="F506" s="1">
+        <v>4.6099999999999998E-4</v>
+      </c>
+      <c r="G506" s="1">
+        <v>1.3851E-2</v>
+      </c>
+      <c r="H506" s="1">
+        <v>2.6819999999999999E-3</v>
+      </c>
+      <c r="I506" s="1">
+        <v>5.1E-5</v>
+      </c>
+      <c r="J506" s="1">
+        <v>16</v>
+      </c>
+      <c r="K506" s="1">
+        <v>0.44579600000000003</v>
+      </c>
+      <c r="L506" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A507" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B507" s="1">
+        <v>0.141097</v>
+      </c>
+      <c r="C507" s="1">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="D507" s="1">
+        <v>3.7030000000000001E-3</v>
+      </c>
+      <c r="E507" s="1">
+        <v>0.44613700000000001</v>
+      </c>
+      <c r="F507" s="1">
+        <v>3.2584000000000002E-2</v>
+      </c>
+      <c r="G507" s="1">
+        <v>1.4985999999999999E-2</v>
+      </c>
+      <c r="H507" s="1">
+        <v>2.7269999999999998E-3</v>
+      </c>
+      <c r="I507" s="1">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="J507" s="1">
+        <v>16</v>
+      </c>
+      <c r="K507" s="1">
+        <v>0.49562299999999998</v>
+      </c>
+      <c r="L507" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A508" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B508" s="1">
+        <v>0.128215</v>
+      </c>
+      <c r="C508" s="1">
+        <v>3.7949999999999998E-2</v>
+      </c>
+      <c r="D508" s="1">
+        <v>3.9220000000000001E-3</v>
+      </c>
+      <c r="E508" s="1">
+        <v>0.48616199999999998</v>
+      </c>
+      <c r="F508" s="1">
+        <v>5.0699999999999996E-4</v>
+      </c>
+      <c r="G508" s="1">
+        <v>1.5368E-2</v>
+      </c>
+      <c r="H508" s="1">
+        <v>3.2829999999999999E-3</v>
+      </c>
+      <c r="I508" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J508" s="1">
+        <v>16</v>
+      </c>
+      <c r="K508" s="1">
+        <v>0.53948099999999999</v>
+      </c>
+      <c r="L508" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A509" s="1">
+        <v>2800</v>
+      </c>
+      <c r="B509" s="1">
+        <v>0.121402</v>
+      </c>
+      <c r="C509" s="1">
+        <v>4.0063000000000001E-2</v>
+      </c>
+      <c r="D509" s="1">
+        <v>3.6610000000000002E-3</v>
+      </c>
+      <c r="E509" s="1">
+        <v>0.53238099999999999</v>
+      </c>
+      <c r="F509" s="1">
         <v>4.37E-4</v>
       </c>
-      <c r="H433">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="I433">
-        <v>2.9E-5</v>
-      </c>
-      <c r="J433">
-        <v>16</v>
-      </c>
-      <c r="K433">
-        <v>2.085E-3</v>
-      </c>
-      <c r="L433" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A434">
-        <v>75</v>
-      </c>
-      <c r="B434">
-        <v>8.5135000000000002E-2</v>
-      </c>
-      <c r="C434">
-        <v>1.1980000000000001E-3</v>
-      </c>
-      <c r="D434">
-        <v>2.0900000000000001E-4</v>
-      </c>
-      <c r="E434">
-        <v>4.0299999999999998E-4</v>
-      </c>
-      <c r="F434">
-        <v>1.63E-4</v>
-      </c>
-      <c r="G434">
-        <v>5.5599999999999996E-4</v>
-      </c>
-      <c r="H434">
-        <v>7.2000000000000002E-5</v>
-      </c>
-      <c r="I434">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="J434">
-        <v>16</v>
-      </c>
-      <c r="K434">
-        <v>2.1580000000000002E-3</v>
-      </c>
-      <c r="L434" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A435">
-        <v>100</v>
-      </c>
-      <c r="B435">
-        <v>8.6550000000000002E-2</v>
-      </c>
-      <c r="C435">
-        <v>7.7499999999999997E-4</v>
-      </c>
-      <c r="D435">
-        <v>6.2E-4</v>
-      </c>
-      <c r="E435">
-        <v>3.0499999999999999E-4</v>
-      </c>
-      <c r="F435">
-        <v>2.05E-4</v>
-      </c>
-      <c r="G435">
-        <v>2.9100000000000003E-4</v>
-      </c>
-      <c r="H435">
-        <v>1.4100000000000001E-4</v>
-      </c>
-      <c r="I435">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="J435">
-        <v>16</v>
-      </c>
-      <c r="K435">
-        <v>1.371E-3</v>
-      </c>
-      <c r="L435" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A436">
-        <v>200</v>
-      </c>
-      <c r="B436">
-        <v>8.5907999999999998E-2</v>
-      </c>
-      <c r="C436">
-        <v>1.01E-3</v>
-      </c>
-      <c r="D436">
-        <v>2.3800000000000001E-4</v>
-      </c>
-      <c r="E436">
-        <v>4.7199999999999998E-4</v>
-      </c>
-      <c r="F436">
-        <v>2.1699999999999999E-4</v>
-      </c>
-      <c r="G436">
-        <v>5.3600000000000002E-4</v>
-      </c>
-      <c r="H436">
-        <v>4.1999999999999998E-5</v>
-      </c>
-      <c r="I436">
-        <v>2.13E-4</v>
-      </c>
-      <c r="J436">
-        <v>16</v>
-      </c>
-      <c r="K436">
-        <v>2.0170000000000001E-3</v>
-      </c>
-      <c r="L436" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A437">
-        <v>300</v>
-      </c>
-      <c r="B437">
-        <v>8.6777000000000007E-2</v>
-      </c>
-      <c r="C437">
-        <v>1.08E-3</v>
-      </c>
-      <c r="D437">
-        <v>3.1500000000000001E-4</v>
-      </c>
-      <c r="E437">
-        <v>6.0400000000000004E-4</v>
-      </c>
-      <c r="F437">
-        <v>3.4600000000000001E-4</v>
-      </c>
-      <c r="G437">
-        <v>4.5100000000000001E-4</v>
-      </c>
-      <c r="H437">
-        <v>5.1E-5</v>
-      </c>
-      <c r="I437">
-        <v>3.6999999999999998E-5</v>
-      </c>
-      <c r="J437">
-        <v>16</v>
-      </c>
-      <c r="K437">
-        <v>2.1350000000000002E-3</v>
-      </c>
-      <c r="L437" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A438">
-        <v>400</v>
-      </c>
-      <c r="B438">
-        <v>8.5778999999999994E-2</v>
-      </c>
-      <c r="C438">
-        <v>1.3749999999999999E-3</v>
-      </c>
-      <c r="D438">
-        <v>3.6000000000000002E-4</v>
-      </c>
-      <c r="E438">
-        <v>6.7100000000000005E-4</v>
-      </c>
-      <c r="F438">
-        <v>2.4699999999999999E-4</v>
-      </c>
-      <c r="G438">
-        <v>5.8500000000000002E-4</v>
-      </c>
-      <c r="H438">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="I438">
-        <v>8.8999999999999995E-5</v>
-      </c>
-      <c r="J438">
-        <v>16</v>
-      </c>
-      <c r="K438">
-        <v>2.6310000000000001E-3</v>
-      </c>
-      <c r="L438" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <v>500</v>
-      </c>
-      <c r="B439">
-        <v>8.6388000000000006E-2</v>
-      </c>
-      <c r="C439">
-        <v>1.732E-3</v>
-      </c>
-      <c r="D439">
-        <v>3.0899999999999998E-4</v>
-      </c>
-      <c r="E439">
-        <v>1.196E-3</v>
-      </c>
-      <c r="F439">
-        <v>3.0899999999999998E-4</v>
-      </c>
-      <c r="G439">
-        <v>7.9100000000000004E-4</v>
-      </c>
-      <c r="H439">
-        <v>8.6000000000000003E-5</v>
-      </c>
-      <c r="I439">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="J439">
-        <v>16</v>
-      </c>
-      <c r="K439">
-        <v>3.7190000000000001E-3</v>
-      </c>
-      <c r="L439" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <v>600</v>
-      </c>
-      <c r="B440">
-        <v>8.8242000000000001E-2</v>
-      </c>
-      <c r="C440">
-        <v>2.1189999999999998E-3</v>
-      </c>
-      <c r="D440">
-        <v>3.5100000000000002E-4</v>
-      </c>
-      <c r="E440">
-        <v>2.7420000000000001E-3</v>
-      </c>
-      <c r="F440">
-        <v>1.6329999999999999E-3</v>
-      </c>
-      <c r="G440">
-        <v>1.049E-3</v>
-      </c>
-      <c r="H440">
-        <v>8.7000000000000001E-5</v>
-      </c>
-      <c r="I440">
-        <v>5.1E-5</v>
-      </c>
-      <c r="J440">
-        <v>16</v>
-      </c>
-      <c r="K440">
-        <v>5.9100000000000003E-3</v>
-      </c>
-      <c r="L440" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A441">
-        <v>700</v>
-      </c>
-      <c r="B441">
-        <v>8.8709999999999997E-2</v>
-      </c>
-      <c r="C441">
-        <v>2.7009999999999998E-3</v>
-      </c>
-      <c r="D441">
-        <v>4.2999999999999999E-4</v>
-      </c>
-      <c r="E441">
-        <v>2.3340000000000001E-3</v>
-      </c>
-      <c r="F441">
-        <v>3.1399999999999999E-4</v>
-      </c>
-      <c r="G441">
-        <v>1.217E-3</v>
-      </c>
-      <c r="H441">
-        <v>2.2599999999999999E-4</v>
-      </c>
-      <c r="I441">
-        <v>2.8400000000000002E-4</v>
-      </c>
-      <c r="J441">
-        <v>16</v>
-      </c>
-      <c r="K441">
-        <v>6.2519999999999997E-3</v>
-      </c>
-      <c r="L441" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A442">
-        <v>800</v>
-      </c>
-      <c r="B442">
-        <v>8.8840000000000002E-2</v>
-      </c>
-      <c r="C442">
-        <v>3.369E-3</v>
-      </c>
-      <c r="D442">
-        <v>5.31E-4</v>
-      </c>
-      <c r="E442">
-        <v>2.6410000000000001E-3</v>
-      </c>
-      <c r="F442">
-        <v>2.52E-4</v>
-      </c>
-      <c r="G442">
-        <v>1.585E-3</v>
-      </c>
-      <c r="H442">
-        <v>1.05E-4</v>
-      </c>
-      <c r="I442">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="J442">
-        <v>16</v>
-      </c>
-      <c r="K442">
-        <v>7.5950000000000002E-3</v>
-      </c>
-      <c r="L442" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A443">
-        <v>900</v>
-      </c>
-      <c r="B443">
-        <v>8.6976999999999999E-2</v>
-      </c>
-      <c r="C443">
-        <v>3.8790000000000001E-3</v>
-      </c>
-      <c r="D443">
-        <v>6.5700000000000003E-4</v>
-      </c>
-      <c r="E443">
-        <v>4.5389999999999996E-3</v>
-      </c>
-      <c r="F443">
-        <v>3.2899999999999997E-4</v>
-      </c>
-      <c r="G443">
-        <v>1.732E-3</v>
-      </c>
-      <c r="H443">
-        <v>2.61E-4</v>
-      </c>
-      <c r="I443">
-        <v>3.4999999999999997E-5</v>
-      </c>
-      <c r="J443">
-        <v>16</v>
-      </c>
-      <c r="K443">
-        <v>1.0149999999999999E-2</v>
-      </c>
-      <c r="L443" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A444">
-        <v>1000</v>
-      </c>
-      <c r="B444">
-        <v>8.6462999999999998E-2</v>
-      </c>
-      <c r="C444">
-        <v>4.7590000000000002E-3</v>
-      </c>
-      <c r="D444">
-        <v>6.8599999999999998E-4</v>
-      </c>
-      <c r="E444">
-        <v>5.2960000000000004E-3</v>
-      </c>
-      <c r="F444">
-        <v>4.15E-4</v>
-      </c>
-      <c r="G444">
-        <v>2.1719999999999999E-3</v>
-      </c>
-      <c r="H444">
-        <v>5.0500000000000002E-4</v>
-      </c>
-      <c r="I444">
-        <v>2.0100000000000001E-4</v>
-      </c>
-      <c r="J444">
-        <v>16</v>
-      </c>
-      <c r="K444">
-        <v>1.2227999999999999E-2</v>
-      </c>
-      <c r="L444" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A445">
-        <v>1100</v>
-      </c>
-      <c r="B445">
-        <v>8.6557999999999996E-2</v>
-      </c>
-      <c r="C445">
-        <v>5.5999999999999999E-3</v>
-      </c>
-      <c r="D445">
-        <v>7.2599999999999997E-4</v>
-      </c>
-      <c r="E445">
-        <v>7.3220000000000004E-3</v>
-      </c>
-      <c r="F445">
-        <v>4.26E-4</v>
-      </c>
-      <c r="G445">
-        <v>2.454E-3</v>
-      </c>
-      <c r="H445">
-        <v>3.9800000000000002E-4</v>
-      </c>
-      <c r="I445">
-        <v>5.1999999999999997E-5</v>
-      </c>
-      <c r="J445">
-        <v>16</v>
-      </c>
-      <c r="K445">
-        <v>1.5376000000000001E-2</v>
-      </c>
-      <c r="L445" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A446">
-        <v>1200</v>
-      </c>
-      <c r="B446">
-        <v>8.6085999999999996E-2</v>
-      </c>
-      <c r="C446">
-        <v>1.0259000000000001E-2</v>
-      </c>
-      <c r="D446">
-        <v>3.2200000000000002E-3</v>
-      </c>
-      <c r="E446">
-        <v>8.8450000000000004E-3</v>
-      </c>
-      <c r="F446">
-        <v>7.5600000000000005E-4</v>
-      </c>
-      <c r="G446">
-        <v>1.2305999999999999E-2</v>
-      </c>
-      <c r="H446">
-        <v>8.3510000000000008E-3</v>
-      </c>
-      <c r="I446">
-        <v>7.4999999999999993E-5</v>
-      </c>
-      <c r="J446">
-        <v>16</v>
-      </c>
-      <c r="K446">
-        <v>3.1408999999999999E-2</v>
-      </c>
-      <c r="L446" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A447">
-        <v>1300</v>
-      </c>
-      <c r="B447">
-        <v>8.9992000000000003E-2</v>
-      </c>
-      <c r="C447">
-        <v>7.5050000000000004E-3</v>
-      </c>
-      <c r="D447">
-        <v>1.0059999999999999E-3</v>
-      </c>
-      <c r="E447">
-        <v>1.2001E-2</v>
-      </c>
-      <c r="F447">
-        <v>4.7699999999999999E-4</v>
-      </c>
-      <c r="G447">
-        <v>3.686E-3</v>
-      </c>
-      <c r="H447">
-        <v>7.2999999999999996E-4</v>
-      </c>
-      <c r="I447">
-        <v>5.1E-5</v>
-      </c>
-      <c r="J447">
-        <v>16</v>
-      </c>
-      <c r="K447">
-        <v>2.3192000000000001E-2</v>
-      </c>
-      <c r="L447" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>1400</v>
-      </c>
-      <c r="B448">
-        <v>8.5702E-2</v>
-      </c>
-      <c r="C448">
-        <v>8.8959999999999994E-3</v>
-      </c>
-      <c r="D448">
-        <v>9.7199999999999999E-4</v>
-      </c>
-      <c r="E448">
-        <v>1.3483999999999999E-2</v>
-      </c>
-      <c r="F448">
-        <v>4.8000000000000001E-4</v>
-      </c>
-      <c r="G448">
-        <v>4.1440000000000001E-3</v>
-      </c>
-      <c r="H448">
-        <v>5.9699999999999998E-4</v>
-      </c>
-      <c r="I448">
-        <v>9.7E-5</v>
-      </c>
-      <c r="J448">
-        <v>16</v>
-      </c>
-      <c r="K448">
-        <v>2.6523999999999999E-2</v>
-      </c>
-      <c r="L448" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A449">
-        <v>1500</v>
-      </c>
-      <c r="B449">
-        <v>8.5924E-2</v>
-      </c>
-      <c r="C449">
-        <v>1.0156E-2</v>
-      </c>
-      <c r="D449">
-        <v>9.9599999999999992E-4</v>
-      </c>
-      <c r="E449">
-        <v>1.7815999999999999E-2</v>
-      </c>
-      <c r="F449">
-        <v>6.3100000000000005E-4</v>
-      </c>
-      <c r="G449">
-        <v>4.5789999999999997E-3</v>
-      </c>
-      <c r="H449">
-        <v>6.8400000000000004E-4</v>
-      </c>
-      <c r="I449">
-        <v>2.6200000000000003E-4</v>
-      </c>
-      <c r="J449">
-        <v>16</v>
-      </c>
-      <c r="K449">
-        <v>3.2551999999999998E-2</v>
-      </c>
-      <c r="L449" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A450">
-        <v>1600</v>
-      </c>
-      <c r="B450">
-        <v>8.5754999999999998E-2</v>
-      </c>
-      <c r="C450">
-        <v>1.1273999999999999E-2</v>
-      </c>
-      <c r="D450">
-        <v>1.4E-3</v>
-      </c>
-      <c r="E450">
-        <v>1.7617000000000001E-2</v>
-      </c>
-      <c r="F450">
-        <v>5.2599999999999999E-4</v>
-      </c>
-      <c r="G450">
-        <v>5.0239999999999998E-3</v>
-      </c>
-      <c r="H450">
-        <v>8.61E-4</v>
-      </c>
-      <c r="I450">
-        <v>1.22E-4</v>
-      </c>
-      <c r="J450">
-        <v>16</v>
-      </c>
-      <c r="K450">
-        <v>3.3916000000000002E-2</v>
-      </c>
-      <c r="L450" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A451">
-        <v>1700</v>
-      </c>
-      <c r="B451">
-        <v>8.5672999999999999E-2</v>
-      </c>
-      <c r="C451">
-        <v>1.2968E-2</v>
-      </c>
-      <c r="D451">
-        <v>1.446E-3</v>
-      </c>
-      <c r="E451">
-        <v>2.5756999999999999E-2</v>
-      </c>
-      <c r="F451">
-        <v>6.4400000000000004E-4</v>
-      </c>
-      <c r="G451">
-        <v>5.6059999999999999E-3</v>
-      </c>
-      <c r="H451">
-        <v>8.4199999999999998E-4</v>
-      </c>
-      <c r="I451">
-        <v>1.1E-4</v>
-      </c>
-      <c r="J451">
-        <v>16</v>
-      </c>
-      <c r="K451">
-        <v>4.4330000000000001E-2</v>
-      </c>
-      <c r="L451" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A452">
-        <v>1800</v>
-      </c>
-      <c r="B452">
-        <v>8.5797999999999999E-2</v>
-      </c>
-      <c r="C452">
-        <v>1.4203E-2</v>
-      </c>
-      <c r="D452">
-        <v>1.5969999999999999E-3</v>
-      </c>
-      <c r="E452">
-        <v>2.9718999999999999E-2</v>
-      </c>
-      <c r="F452">
-        <v>7.7200000000000001E-4</v>
-      </c>
-      <c r="G452">
-        <v>6.6039999999999996E-3</v>
-      </c>
-      <c r="H452">
-        <v>1.4170000000000001E-3</v>
-      </c>
-      <c r="I452">
-        <v>2.61E-4</v>
-      </c>
-      <c r="J452">
-        <v>16</v>
-      </c>
-      <c r="K452">
-        <v>5.0526000000000001E-2</v>
-      </c>
-      <c r="L452" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A453">
-        <v>1900</v>
-      </c>
-      <c r="B453">
-        <v>8.5722999999999994E-2</v>
-      </c>
-      <c r="C453">
-        <v>1.5786999999999999E-2</v>
-      </c>
-      <c r="D453">
-        <v>1.8550000000000001E-3</v>
-      </c>
-      <c r="E453">
-        <v>3.5251999999999999E-2</v>
-      </c>
-      <c r="F453">
-        <v>7.6800000000000002E-4</v>
-      </c>
-      <c r="G453">
-        <v>6.927E-3</v>
-      </c>
-      <c r="H453">
-        <v>1.1659999999999999E-3</v>
-      </c>
-      <c r="I453">
+      <c r="G509" s="1">
+        <v>1.6487000000000002E-2</v>
+      </c>
+      <c r="H509" s="1">
+        <v>3.6519999999999999E-3</v>
+      </c>
+      <c r="I509" s="1">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="J509" s="1">
+        <v>16</v>
+      </c>
+      <c r="K509" s="1">
+        <v>0.58892999999999995</v>
+      </c>
+      <c r="L509" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A510" s="1">
+        <v>2900</v>
+      </c>
+      <c r="B510" s="1">
+        <v>0.13366600000000001</v>
+      </c>
+      <c r="C510" s="1">
+        <v>4.9523999999999999E-2</v>
+      </c>
+      <c r="D510" s="1">
+        <v>3.1440000000000001E-3</v>
+      </c>
+      <c r="E510" s="1">
+        <v>0.59703799999999996</v>
+      </c>
+      <c r="F510" s="1">
+        <v>2.2169999999999998E-3</v>
+      </c>
+      <c r="G510" s="1">
+        <v>2.0438000000000001E-2</v>
+      </c>
+      <c r="H510" s="1">
+        <v>2.764E-3</v>
+      </c>
+      <c r="I510" s="1">
+        <v>1.07E-4</v>
+      </c>
+      <c r="J510" s="1">
+        <v>16</v>
+      </c>
+      <c r="K510" s="1">
+        <v>0.66699900000000001</v>
+      </c>
+      <c r="L510" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A511" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B511" s="1">
+        <v>0.139156</v>
+      </c>
+      <c r="C511" s="1">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="D511" s="1">
+        <v>2.212E-3</v>
+      </c>
+      <c r="E511" s="1">
+        <v>0.634297</v>
+      </c>
+      <c r="F511" s="1">
+        <v>6.02E-4</v>
+      </c>
+      <c r="G511" s="1">
+        <v>2.1897E-2</v>
+      </c>
+      <c r="H511" s="1">
+        <v>5.1580000000000003E-3</v>
+      </c>
+      <c r="I511" s="1">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="J511" s="1">
+        <v>16</v>
+      </c>
+      <c r="K511" s="1">
+        <v>0.70559499999999997</v>
+      </c>
+      <c r="L511" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A512" s="1">
+        <v>3100</v>
+      </c>
+      <c r="B512" s="1">
+        <v>0.14496500000000001</v>
+      </c>
+      <c r="C512" s="1">
+        <v>5.2845000000000003E-2</v>
+      </c>
+      <c r="D512" s="1">
+        <v>2.6949999999999999E-3</v>
+      </c>
+      <c r="E512" s="1">
+        <v>0.71977899999999995</v>
+      </c>
+      <c r="F512" s="1">
+        <v>4.6700000000000002E-4</v>
+      </c>
+      <c r="G512" s="1">
+        <v>2.2550000000000001E-2</v>
+      </c>
+      <c r="H512" s="1">
+        <v>3.8140000000000001E-3</v>
+      </c>
+      <c r="I512" s="1">
+        <v>1.83E-4</v>
+      </c>
+      <c r="J512" s="1">
+        <v>16</v>
+      </c>
+      <c r="K512" s="1">
+        <v>0.79517300000000002</v>
+      </c>
+      <c r="L512" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>3200</v>
+      </c>
+      <c r="B513" s="1">
+        <v>0.15850900000000001</v>
+      </c>
+      <c r="C513" s="1">
+        <v>4.5225000000000001E-2</v>
+      </c>
+      <c r="D513" s="1">
+        <v>1.892E-3</v>
+      </c>
+      <c r="E513" s="1">
+        <v>0.76476699999999997</v>
+      </c>
+      <c r="F513" s="1">
+        <v>4.1100000000000002E-4</v>
+      </c>
+      <c r="G513" s="1">
+        <v>2.3023999999999999E-2</v>
+      </c>
+      <c r="H513" s="1">
+        <v>4.398E-3</v>
+      </c>
+      <c r="I513" s="1">
+        <v>3.01E-4</v>
+      </c>
+      <c r="J513" s="1">
+        <v>16</v>
+      </c>
+      <c r="K513" s="1">
+        <v>0.83301599999999998</v>
+      </c>
+      <c r="L513" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A514" s="1">
+        <v>3300</v>
+      </c>
+      <c r="B514" s="1">
+        <v>0.15055199999999999</v>
+      </c>
+      <c r="C514" s="1">
+        <v>6.5767000000000006E-2</v>
+      </c>
+      <c r="D514" s="1">
+        <v>1.1058E-2</v>
+      </c>
+      <c r="E514" s="1">
+        <v>0.87803100000000001</v>
+      </c>
+      <c r="F514" s="1">
+        <v>1.389E-3</v>
+      </c>
+      <c r="G514" s="1">
+        <v>2.5222000000000001E-2</v>
+      </c>
+      <c r="H514" s="1">
+        <v>4.2839999999999996E-3</v>
+      </c>
+      <c r="I514" s="1">
+        <v>2.31E-4</v>
+      </c>
+      <c r="J514" s="1">
+        <v>16</v>
+      </c>
+      <c r="K514" s="1">
+        <v>0.96901999999999999</v>
+      </c>
+      <c r="L514" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A515" s="1">
+        <v>3400</v>
+      </c>
+      <c r="B515" s="1">
+        <v>0.140349</v>
+      </c>
+      <c r="C515" s="1">
+        <v>6.3222E-2</v>
+      </c>
+      <c r="D515" s="1">
+        <v>3.202E-3</v>
+      </c>
+      <c r="E515" s="1">
+        <v>0.96289800000000003</v>
+      </c>
+      <c r="F515" s="1">
+        <v>2.22E-4</v>
+      </c>
+      <c r="G515" s="1">
+        <v>2.6336999999999999E-2</v>
+      </c>
+      <c r="H515" s="1">
+        <v>4.5570000000000003E-3</v>
+      </c>
+      <c r="I515" s="1">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="J515" s="1">
+        <v>16</v>
+      </c>
+      <c r="K515" s="1">
+        <v>1.052457</v>
+      </c>
+      <c r="L515" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A516" s="1">
+        <v>3500</v>
+      </c>
+      <c r="B516" s="1">
+        <v>0.144149</v>
+      </c>
+      <c r="C516" s="1">
+        <v>6.8225999999999995E-2</v>
+      </c>
+      <c r="D516" s="1">
+        <v>4.6990000000000001E-3</v>
+      </c>
+      <c r="E516" s="1">
+        <v>1.0143949999999999</v>
+      </c>
+      <c r="F516" s="1">
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="G516" s="1">
+        <v>2.776E-2</v>
+      </c>
+      <c r="H516" s="1">
+        <v>4.712E-3</v>
+      </c>
+      <c r="I516" s="1">
         <v>5.7000000000000003E-5</v>
       </c>
-      <c r="J453">
-        <v>16</v>
-      </c>
-      <c r="K453">
-        <v>5.7965999999999997E-2</v>
-      </c>
-      <c r="L453" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A454">
-        <v>2000</v>
-      </c>
-      <c r="B454">
-        <v>8.5763000000000006E-2</v>
-      </c>
-      <c r="C454">
-        <v>1.7099E-2</v>
-      </c>
-      <c r="D454">
-        <v>1.872E-3</v>
-      </c>
-      <c r="E454">
-        <v>3.5272999999999999E-2</v>
-      </c>
-      <c r="F454">
-        <v>9.9299999999999996E-4</v>
-      </c>
-      <c r="G454">
-        <v>7.9600000000000001E-3</v>
-      </c>
-      <c r="H454">
-        <v>1.214E-3</v>
-      </c>
-      <c r="I454">
-        <v>2.7599999999999999E-4</v>
-      </c>
-      <c r="J454">
-        <v>16</v>
-      </c>
-      <c r="K454">
-        <v>6.0332999999999998E-2</v>
-      </c>
-      <c r="L454" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A455">
-        <v>2100</v>
-      </c>
-      <c r="B455">
-        <v>8.6507000000000001E-2</v>
-      </c>
-      <c r="C455">
-        <v>1.9210000000000001E-2</v>
-      </c>
-      <c r="D455">
-        <v>1.8060000000000001E-3</v>
-      </c>
-      <c r="E455">
-        <v>4.7786000000000002E-2</v>
-      </c>
-      <c r="F455">
-        <v>9.2599999999999996E-4</v>
-      </c>
-      <c r="G455">
-        <v>8.7189999999999993E-3</v>
-      </c>
-      <c r="H455">
-        <v>1.732E-3</v>
-      </c>
-      <c r="I455">
-        <v>5.8999999999999998E-5</v>
-      </c>
-      <c r="J455">
-        <v>16</v>
-      </c>
-      <c r="K455">
-        <v>7.5714000000000004E-2</v>
-      </c>
-      <c r="L455" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A456">
-        <v>2200</v>
-      </c>
-      <c r="B456">
-        <v>8.6238999999999996E-2</v>
-      </c>
-      <c r="C456">
-        <v>2.0933E-2</v>
-      </c>
-      <c r="D456">
-        <v>1.877E-3</v>
-      </c>
-      <c r="E456">
-        <v>5.0233E-2</v>
-      </c>
-      <c r="F456">
-        <v>1.431E-3</v>
-      </c>
-      <c r="G456">
-        <v>9.4179999999999993E-3</v>
-      </c>
-      <c r="H456">
-        <v>1.792E-3</v>
-      </c>
-      <c r="I456">
-        <v>2.7700000000000001E-4</v>
-      </c>
-      <c r="J456">
-        <v>16</v>
-      </c>
-      <c r="K456">
-        <v>8.0584000000000003E-2</v>
-      </c>
-      <c r="L456" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A457">
-        <v>2300</v>
-      </c>
-      <c r="B457">
-        <v>8.5702E-2</v>
-      </c>
-      <c r="C457">
-        <v>2.2526999999999998E-2</v>
-      </c>
-      <c r="D457">
-        <v>2.1299999999999999E-3</v>
-      </c>
-      <c r="E457">
-        <v>6.4449000000000006E-2</v>
-      </c>
-      <c r="F457">
-        <v>1.6509999999999999E-3</v>
-      </c>
-      <c r="G457">
-        <v>1.0402E-2</v>
-      </c>
-      <c r="H457">
-        <v>2.1919999999999999E-3</v>
-      </c>
-      <c r="I457">
-        <v>2.6899999999999998E-4</v>
-      </c>
-      <c r="J457">
-        <v>16</v>
-      </c>
-      <c r="K457">
-        <v>9.7378000000000006E-2</v>
-      </c>
-      <c r="L457" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A458">
-        <v>2400</v>
-      </c>
-      <c r="B458">
-        <v>8.6232000000000003E-2</v>
-      </c>
-      <c r="C458">
-        <v>2.5637E-2</v>
-      </c>
-      <c r="D458">
-        <v>2.3500000000000001E-3</v>
-      </c>
-      <c r="E458">
-        <v>6.2218000000000002E-2</v>
-      </c>
-      <c r="F458">
-        <v>1.5510000000000001E-3</v>
-      </c>
-      <c r="G458">
-        <v>1.6524E-2</v>
-      </c>
-      <c r="H458">
-        <v>6.4489999999999999E-3</v>
-      </c>
-      <c r="I458">
-        <v>3.7500000000000001E-4</v>
-      </c>
-      <c r="J458">
-        <v>16</v>
-      </c>
-      <c r="K458">
-        <v>0.104379</v>
-      </c>
-      <c r="L458" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A459">
-        <v>2500</v>
-      </c>
-      <c r="B459">
-        <v>8.6695999999999995E-2</v>
-      </c>
-      <c r="C459">
-        <v>2.5950999999999998E-2</v>
-      </c>
-      <c r="D459">
-        <v>2.2929999999999999E-3</v>
-      </c>
-      <c r="E459">
-        <v>8.3770999999999998E-2</v>
-      </c>
-      <c r="F459">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="G459">
-        <v>1.2475E-2</v>
-      </c>
-      <c r="H459">
-        <v>2.6800000000000001E-3</v>
-      </c>
-      <c r="I459">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="J459">
-        <v>16</v>
-      </c>
-      <c r="K459">
-        <v>0.122196</v>
-      </c>
-      <c r="L459" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A460">
-        <v>2600</v>
-      </c>
-      <c r="B460">
-        <v>8.6033999999999999E-2</v>
-      </c>
-      <c r="C460">
-        <v>2.852E-2</v>
-      </c>
-      <c r="D460">
-        <v>2.313E-3</v>
-      </c>
-      <c r="E460">
-        <v>8.5197999999999996E-2</v>
-      </c>
-      <c r="F460">
-        <v>4.4900000000000002E-4</v>
-      </c>
-      <c r="G460">
-        <v>1.3417E-2</v>
-      </c>
-      <c r="H460">
-        <v>2.8349999999999998E-3</v>
-      </c>
-      <c r="I460">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="J460">
-        <v>16</v>
-      </c>
-      <c r="K460">
-        <v>0.127136</v>
-      </c>
-      <c r="L460" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A461">
-        <v>2700</v>
-      </c>
-      <c r="B461">
-        <v>8.6065000000000003E-2</v>
-      </c>
-      <c r="C461">
-        <v>3.0113000000000001E-2</v>
-      </c>
-      <c r="D461">
-        <v>2.4260000000000002E-3</v>
-      </c>
-      <c r="E461">
-        <v>0.10335800000000001</v>
-      </c>
-      <c r="F461">
-        <v>7.6000000000000004E-5</v>
-      </c>
-      <c r="G461">
-        <v>1.4886999999999999E-2</v>
-      </c>
-      <c r="H461">
-        <v>3.1359999999999999E-3</v>
-      </c>
-      <c r="I461">
+      <c r="J516" s="1">
+        <v>16</v>
+      </c>
+      <c r="K516" s="1">
+        <v>1.110382</v>
+      </c>
+      <c r="L516" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A517" s="1">
+        <v>3600</v>
+      </c>
+      <c r="B517" s="1">
+        <v>0.106209</v>
+      </c>
+      <c r="C517" s="1">
+        <v>7.3089000000000001E-2</v>
+      </c>
+      <c r="D517" s="1">
+        <v>3.4359999999999998E-3</v>
+      </c>
+      <c r="E517" s="1">
+        <v>1.12842</v>
+      </c>
+      <c r="F517" s="1">
+        <v>3.86E-4</v>
+      </c>
+      <c r="G517" s="1">
+        <v>2.9678E-2</v>
+      </c>
+      <c r="H517" s="1">
+        <v>3.7780000000000001E-3</v>
+      </c>
+      <c r="I517" s="1">
+        <v>4.5300000000000001E-4</v>
+      </c>
+      <c r="J517" s="1">
+        <v>16</v>
+      </c>
+      <c r="K517" s="1">
+        <v>1.231187</v>
+      </c>
+      <c r="L517" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A518" s="1">
+        <v>3700</v>
+      </c>
+      <c r="B518" s="1">
+        <v>0.107764</v>
+      </c>
+      <c r="C518" s="1">
+        <v>7.7548000000000006E-2</v>
+      </c>
+      <c r="D518" s="1">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="E518" s="1">
+        <v>1.190334</v>
+      </c>
+      <c r="F518" s="1">
+        <v>3.5399999999999999E-4</v>
+      </c>
+      <c r="G518" s="1">
+        <v>3.0342999999999998E-2</v>
+      </c>
+      <c r="H518" s="1">
+        <v>4.7429999999999998E-3</v>
+      </c>
+      <c r="I518" s="1">
         <v>6.0999999999999999E-5</v>
       </c>
-      <c r="J461">
-        <v>16</v>
-      </c>
-      <c r="K461">
-        <v>0.14835699999999999</v>
-      </c>
-      <c r="L461" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A462">
-        <v>2800</v>
-      </c>
-      <c r="B462">
-        <v>8.6133000000000001E-2</v>
-      </c>
-      <c r="C462">
-        <v>3.2190000000000003E-2</v>
-      </c>
-      <c r="D462">
-        <v>2.555E-3</v>
-      </c>
-      <c r="E462">
-        <v>0.100866</v>
-      </c>
-      <c r="F462">
-        <v>7.4200000000000004E-4</v>
-      </c>
-      <c r="G462">
-        <v>1.5532000000000001E-2</v>
-      </c>
-      <c r="H462">
-        <v>3.3379999999999998E-3</v>
-      </c>
-      <c r="I462">
-        <v>2.61E-4</v>
-      </c>
-      <c r="J462">
-        <v>16</v>
-      </c>
-      <c r="K462">
-        <v>0.148589</v>
-      </c>
-      <c r="L462" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A463">
-        <v>2900</v>
-      </c>
-      <c r="B463">
-        <v>8.6108000000000004E-2</v>
-      </c>
-      <c r="C463">
-        <v>3.6655E-2</v>
-      </c>
-      <c r="D463">
-        <v>1.2689999999999999E-3</v>
-      </c>
-      <c r="E463">
-        <v>0.12812599999999999</v>
-      </c>
-      <c r="F463">
-        <v>2.5500000000000002E-4</v>
-      </c>
-      <c r="G463">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H463">
-        <v>2.7439999999999999E-3</v>
-      </c>
-      <c r="I463">
-        <v>2.9E-4</v>
-      </c>
-      <c r="J463">
-        <v>16</v>
-      </c>
-      <c r="K463">
-        <v>0.18328</v>
-      </c>
-      <c r="L463" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A464">
-        <v>3000</v>
-      </c>
-      <c r="B464">
-        <v>8.6139999999999994E-2</v>
-      </c>
-      <c r="C464">
-        <v>3.9806000000000001E-2</v>
-      </c>
-      <c r="D464">
-        <v>1.2719999999999999E-3</v>
-      </c>
-      <c r="E464">
-        <v>0.12900500000000001</v>
-      </c>
-      <c r="F464">
-        <v>3.1100000000000002E-4</v>
-      </c>
-      <c r="G464">
-        <v>2.2275E-2</v>
-      </c>
-      <c r="H464">
-        <v>6.5050000000000004E-3</v>
-      </c>
-      <c r="I464">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="J464">
-        <v>16</v>
-      </c>
-      <c r="K464">
-        <v>0.191085</v>
-      </c>
-      <c r="L464" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A465">
-        <v>3100</v>
-      </c>
-      <c r="B465">
-        <v>8.5951E-2</v>
-      </c>
-      <c r="C465">
-        <v>4.1519E-2</v>
-      </c>
-      <c r="D465">
-        <v>1.557E-3</v>
-      </c>
-      <c r="E465">
-        <v>0.15676899999999999</v>
-      </c>
-      <c r="F465">
-        <v>2.6600000000000001E-4</v>
-      </c>
-      <c r="G465">
-        <v>2.0979999999999999E-2</v>
-      </c>
-      <c r="H465">
-        <v>3.0709999999999999E-3</v>
-      </c>
-      <c r="I465">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="J465">
-        <v>16</v>
-      </c>
-      <c r="K465">
-        <v>0.21926799999999999</v>
-      </c>
-      <c r="L465" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A466">
-        <v>3200</v>
-      </c>
-      <c r="B466">
-        <v>8.5467000000000001E-2</v>
-      </c>
-      <c r="C466">
-        <v>4.4423999999999998E-2</v>
-      </c>
-      <c r="D466">
-        <v>1.761E-3</v>
-      </c>
-      <c r="E466">
-        <v>0.15062800000000001</v>
-      </c>
-      <c r="F466">
-        <v>2.0240000000000002E-3</v>
-      </c>
-      <c r="G466">
-        <v>2.2353999999999999E-2</v>
-      </c>
-      <c r="H466">
-        <v>3.3059999999999999E-3</v>
-      </c>
-      <c r="I466">
-        <v>1.37E-4</v>
-      </c>
-      <c r="J466">
-        <v>16</v>
-      </c>
-      <c r="K466">
-        <v>0.21740599999999999</v>
-      </c>
-      <c r="L466" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A467">
-        <v>3300</v>
-      </c>
-      <c r="B467">
-        <v>8.6596000000000006E-2</v>
-      </c>
-      <c r="C467">
-        <v>4.7653000000000001E-2</v>
-      </c>
-      <c r="D467">
-        <v>2.0279999999999999E-3</v>
-      </c>
-      <c r="E467">
-        <v>0.18739</v>
-      </c>
-      <c r="F467">
-        <v>1.34E-4</v>
-      </c>
-      <c r="G467">
-        <v>2.3798E-2</v>
-      </c>
-      <c r="H467">
-        <v>3.4090000000000001E-3</v>
-      </c>
-      <c r="I467">
-        <v>8.1000000000000004E-5</v>
-      </c>
-      <c r="J467">
-        <v>16</v>
-      </c>
-      <c r="K467">
-        <v>0.25884099999999999</v>
-      </c>
-      <c r="L467" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A468">
-        <v>3400</v>
-      </c>
-      <c r="B468">
-        <v>8.6588999999999999E-2</v>
-      </c>
-      <c r="C468">
-        <v>5.561E-2</v>
-      </c>
-      <c r="D468">
-        <v>6.6579999999999999E-3</v>
-      </c>
-      <c r="E468">
-        <v>0.19236400000000001</v>
-      </c>
-      <c r="F468">
-        <v>3.3799999999999998E-4</v>
-      </c>
-      <c r="G468">
-        <v>2.6710000000000001E-2</v>
-      </c>
-      <c r="H468">
-        <v>6.0010000000000003E-3</v>
-      </c>
-      <c r="I468">
-        <v>3.88E-4</v>
-      </c>
-      <c r="J468">
-        <v>16</v>
-      </c>
-      <c r="K468">
-        <v>0.27468399999999998</v>
-      </c>
-      <c r="L468" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A469">
-        <v>3500</v>
-      </c>
-      <c r="B469">
-        <v>8.6646000000000001E-2</v>
-      </c>
-      <c r="C469">
-        <v>5.3652999999999999E-2</v>
-      </c>
-      <c r="D469">
-        <v>2.2399999999999998E-3</v>
-      </c>
-      <c r="E469">
-        <v>0.22018199999999999</v>
-      </c>
-      <c r="F469">
-        <v>3.6200000000000002E-4</v>
-      </c>
-      <c r="G469">
-        <v>2.6749999999999999E-2</v>
-      </c>
-      <c r="H469">
-        <v>4.0260000000000001E-3</v>
-      </c>
-      <c r="I469">
-        <v>8.2000000000000001E-5</v>
-      </c>
-      <c r="J469">
-        <v>16</v>
-      </c>
-      <c r="K469">
-        <v>0.30058499999999999</v>
-      </c>
-      <c r="L469" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A470">
-        <v>3600</v>
-      </c>
-      <c r="B470">
-        <v>8.6322999999999997E-2</v>
-      </c>
-      <c r="C470">
-        <v>5.8056999999999997E-2</v>
-      </c>
-      <c r="D470">
-        <v>2.2759999999999998E-3</v>
-      </c>
-      <c r="E470">
-        <v>0.21718100000000001</v>
-      </c>
-      <c r="F470">
-        <v>1.93E-4</v>
-      </c>
-      <c r="G470">
-        <v>2.8264999999999998E-2</v>
-      </c>
-      <c r="H470">
-        <v>4.4299999999999999E-3</v>
-      </c>
-      <c r="I470">
-        <v>9.0000000000000006E-5</v>
-      </c>
-      <c r="J470">
-        <v>16</v>
-      </c>
-      <c r="K470">
-        <v>0.30350199999999999</v>
-      </c>
-      <c r="L470" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A471">
-        <v>3700</v>
-      </c>
-      <c r="B471">
-        <v>8.6600999999999997E-2</v>
-      </c>
-      <c r="C471">
-        <v>6.1124999999999999E-2</v>
-      </c>
-      <c r="D471">
-        <v>2.7799999999999999E-3</v>
-      </c>
-      <c r="E471">
-        <v>0.25984000000000002</v>
-      </c>
-      <c r="F471">
-        <v>2.7300000000000002E-4</v>
-      </c>
-      <c r="G471">
-        <v>3.0116E-2</v>
-      </c>
-      <c r="H471">
-        <v>5.0769999999999999E-3</v>
-      </c>
-      <c r="I471">
-        <v>8.3999999999999995E-5</v>
-      </c>
-      <c r="J471">
-        <v>16</v>
-      </c>
-      <c r="K471">
-        <v>0.35108099999999998</v>
-      </c>
-      <c r="L471" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A472">
+      <c r="J518" s="1">
+        <v>16</v>
+      </c>
+      <c r="K518" s="1">
+        <v>1.298225</v>
+      </c>
+      <c r="L518" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A519" s="1">
         <v>3800</v>
       </c>
-      <c r="B472">
-        <v>8.5938000000000001E-2</v>
-      </c>
-      <c r="C472">
-        <v>6.5078999999999998E-2</v>
-      </c>
-      <c r="D472">
-        <v>3.5339999999999998E-3</v>
-      </c>
-      <c r="E472">
-        <v>0.25934800000000002</v>
-      </c>
-      <c r="F472">
-        <v>3.2299999999999999E-4</v>
-      </c>
-      <c r="G472">
-        <v>3.1759000000000003E-2</v>
-      </c>
-      <c r="H472">
-        <v>4.9249999999999997E-3</v>
-      </c>
-      <c r="I472">
-        <v>6.4999999999999994E-5</v>
-      </c>
-      <c r="J472">
-        <v>16</v>
-      </c>
-      <c r="K472">
-        <v>0.35618499999999997</v>
-      </c>
-      <c r="L472" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A473">
+      <c r="B519" s="1">
+        <v>0.109761</v>
+      </c>
+      <c r="C519" s="1">
+        <v>8.2986000000000004E-2</v>
+      </c>
+      <c r="D519" s="1">
+        <v>2.5799999999999998E-3</v>
+      </c>
+      <c r="E519" s="1">
+        <v>1.3383560000000001</v>
+      </c>
+      <c r="F519" s="1">
+        <v>1.415E-3</v>
+      </c>
+      <c r="G519" s="1">
+        <v>3.1966000000000001E-2</v>
+      </c>
+      <c r="H519" s="1">
+        <v>5.3030000000000004E-3</v>
+      </c>
+      <c r="I519" s="1">
+        <v>2.8800000000000001E-4</v>
+      </c>
+      <c r="J519" s="1">
+        <v>16</v>
+      </c>
+      <c r="K519" s="1">
+        <v>1.453308</v>
+      </c>
+      <c r="L519" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A520" s="1">
         <v>3900</v>
       </c>
-      <c r="B473">
-        <v>8.5941000000000004E-2</v>
-      </c>
-      <c r="C473">
-        <v>6.8497000000000002E-2</v>
-      </c>
-      <c r="D473">
-        <v>2.869E-3</v>
-      </c>
-      <c r="E473">
-        <v>0.30113800000000002</v>
-      </c>
-      <c r="F473">
-        <v>3.97E-4</v>
-      </c>
-      <c r="G473">
-        <v>3.3867000000000001E-2</v>
-      </c>
-      <c r="H473">
-        <v>6.1549999999999999E-3</v>
-      </c>
-      <c r="I473">
-        <v>6.0999999999999999E-5</v>
-      </c>
-      <c r="J473">
-        <v>16</v>
-      </c>
-      <c r="K473">
-        <v>0.403501</v>
-      </c>
-      <c r="L473" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A474">
+      <c r="B520" s="1">
+        <v>0.107</v>
+      </c>
+      <c r="C520" s="1">
+        <v>8.5141999999999995E-2</v>
+      </c>
+      <c r="D520" s="1">
+        <v>4.2550000000000001E-3</v>
+      </c>
+      <c r="E520" s="1">
+        <v>1.3844259999999999</v>
+      </c>
+      <c r="F520" s="1">
+        <v>1.7100000000000001E-4</v>
+      </c>
+      <c r="G520" s="1">
+        <v>3.4078999999999998E-2</v>
+      </c>
+      <c r="H520" s="1">
+        <v>5.2469999999999999E-3</v>
+      </c>
+      <c r="I520" s="1">
+        <v>3.48E-4</v>
+      </c>
+      <c r="J520" s="1">
+        <v>16</v>
+      </c>
+      <c r="K520" s="1">
+        <v>1.5036480000000001</v>
+      </c>
+      <c r="L520" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A521" s="1">
         <v>4000</v>
       </c>
-      <c r="B474">
-        <v>8.8497999999999993E-2</v>
-      </c>
-      <c r="C474">
-        <v>7.5870999999999994E-2</v>
-      </c>
-      <c r="D474">
-        <v>8.1539999999999998E-3</v>
-      </c>
-      <c r="E474">
-        <v>0.27902100000000002</v>
-      </c>
-      <c r="F474">
-        <v>2.7399999999999999E-4</v>
-      </c>
-      <c r="G474">
-        <v>3.5983000000000001E-2</v>
-      </c>
-      <c r="H474">
-        <v>7.0070000000000002E-3</v>
-      </c>
-      <c r="I474">
-        <v>6.4999999999999994E-5</v>
-      </c>
-      <c r="J474">
-        <v>16</v>
-      </c>
-      <c r="K474">
-        <v>0.39087499999999997</v>
-      </c>
-      <c r="L474" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A476" t="s">
-        <v>28</v>
-      </c>
-      <c r="B476" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A477" t="s">
-        <v>5</v>
-      </c>
-      <c r="B477" t="s">
-        <v>14</v>
-      </c>
-      <c r="C477" t="s">
-        <v>15</v>
-      </c>
-      <c r="D477" t="s">
-        <v>16</v>
-      </c>
-      <c r="E477" t="s">
-        <v>6</v>
-      </c>
-      <c r="F477" t="s">
-        <v>7</v>
-      </c>
-      <c r="G477" t="s">
-        <v>17</v>
-      </c>
-      <c r="H477" t="s">
-        <v>18</v>
-      </c>
-      <c r="I477" t="s">
-        <v>19</v>
-      </c>
-      <c r="J477" t="s">
-        <v>20</v>
-      </c>
-      <c r="K477" t="s">
-        <v>21</v>
-      </c>
-      <c r="L477" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A478">
-        <v>1</v>
-      </c>
-      <c r="B478">
-        <v>0.106945</v>
-      </c>
-      <c r="C478">
-        <v>1.2160000000000001E-3</v>
-      </c>
-      <c r="D478">
-        <v>2.3699999999999999E-4</v>
-      </c>
-      <c r="E478">
-        <v>4.8799999999999999E-4</v>
-      </c>
-      <c r="F478">
-        <v>2.6899999999999998E-4</v>
-      </c>
-      <c r="G478">
-        <v>4.3800000000000002E-4</v>
-      </c>
-      <c r="H478">
-        <v>1.5999999999999999E-5</v>
-      </c>
-      <c r="I478">
-        <v>3.4E-5</v>
-      </c>
-      <c r="J478">
-        <v>16</v>
-      </c>
-      <c r="K478">
-        <v>2.1410000000000001E-3</v>
-      </c>
-      <c r="L478" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A479">
-        <v>25</v>
-      </c>
-      <c r="B479">
-        <v>0.10459499999999999</v>
-      </c>
-      <c r="C479">
-        <v>9.4300000000000004E-4</v>
-      </c>
-      <c r="D479">
-        <v>1.6200000000000001E-4</v>
-      </c>
-      <c r="E479">
-        <v>3.1799999999999998E-4</v>
-      </c>
-      <c r="F479">
-        <v>1.06E-4</v>
-      </c>
-      <c r="G479">
-        <v>4.0400000000000001E-4</v>
-      </c>
-      <c r="H479">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="I479">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="J479">
-        <v>16</v>
-      </c>
-      <c r="K479">
-        <v>1.665E-3</v>
-      </c>
-      <c r="L479" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A480">
-        <v>50</v>
-      </c>
-      <c r="B480">
-        <v>0.10374800000000001</v>
-      </c>
-      <c r="C480">
-        <v>1.147E-3</v>
-      </c>
-      <c r="D480">
-        <v>8.3999999999999995E-5</v>
-      </c>
-      <c r="E480">
-        <v>3.9100000000000002E-4</v>
-      </c>
-      <c r="F480">
-        <v>1.3200000000000001E-4</v>
-      </c>
-      <c r="G480">
-        <v>4.57E-4</v>
-      </c>
-      <c r="H480">
-        <v>9.7E-5</v>
-      </c>
-      <c r="I480">
-        <v>2.8E-5</v>
-      </c>
-      <c r="J480">
-        <v>16</v>
-      </c>
-      <c r="K480">
-        <v>1.9949999999999998E-3</v>
-      </c>
-      <c r="L480" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A481">
-        <v>75</v>
-      </c>
-      <c r="B481">
-        <v>0.10416</v>
-      </c>
-      <c r="C481">
-        <v>1.1299999999999999E-3</v>
-      </c>
-      <c r="D481">
-        <v>2.5700000000000001E-4</v>
-      </c>
-      <c r="E481">
-        <v>4.95E-4</v>
-      </c>
-      <c r="F481">
-        <v>1.7899999999999999E-4</v>
-      </c>
-      <c r="G481">
-        <v>4.3899999999999999E-4</v>
-      </c>
-      <c r="H481">
-        <v>4.5000000000000003E-5</v>
-      </c>
-      <c r="I481">
-        <v>5.3000000000000001E-5</v>
-      </c>
-      <c r="J481">
-        <v>16</v>
-      </c>
-      <c r="K481">
-        <v>2.0639999999999999E-3</v>
-      </c>
-      <c r="L481" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A482">
-        <v>100</v>
-      </c>
-      <c r="B482">
-        <v>0.104666</v>
-      </c>
-      <c r="C482">
-        <v>1.258E-3</v>
-      </c>
-      <c r="D482">
-        <v>1.46E-4</v>
-      </c>
-      <c r="E482">
-        <v>4.3100000000000001E-4</v>
-      </c>
-      <c r="F482">
-        <v>1.8699999999999999E-4</v>
-      </c>
-      <c r="G482">
-        <v>5.4600000000000004E-4</v>
-      </c>
-      <c r="H482">
-        <v>1.01E-4</v>
-      </c>
-      <c r="I482">
-        <v>2.8E-5</v>
-      </c>
-      <c r="J482">
-        <v>16</v>
-      </c>
-      <c r="K482">
-        <v>2.2360000000000001E-3</v>
-      </c>
-      <c r="L482" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <v>200</v>
-      </c>
-      <c r="B483">
-        <v>0.10557999999999999</v>
-      </c>
-      <c r="C483">
-        <v>1.521E-3</v>
-      </c>
-      <c r="D483">
-        <v>2.1900000000000001E-4</v>
-      </c>
-      <c r="E483">
-        <v>9.5500000000000001E-4</v>
-      </c>
-      <c r="F483">
-        <v>2.32E-4</v>
-      </c>
-      <c r="G483">
-        <v>5.9800000000000001E-4</v>
-      </c>
-      <c r="H483">
-        <v>3.4E-5</v>
-      </c>
-      <c r="I483">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="J483">
-        <v>16</v>
-      </c>
-      <c r="K483">
-        <v>3.0739999999999999E-3</v>
-      </c>
-      <c r="L483" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A484">
-        <v>300</v>
-      </c>
-      <c r="B484">
-        <v>0.10409</v>
-      </c>
-      <c r="C484">
-        <v>1.4480000000000001E-3</v>
-      </c>
-      <c r="D484">
-        <v>3.6299999999999999E-4</v>
-      </c>
-      <c r="E484">
-        <v>1.3060000000000001E-3</v>
-      </c>
-      <c r="F484">
-        <v>2.5399999999999999E-4</v>
-      </c>
-      <c r="G484">
-        <v>6.1200000000000002E-4</v>
-      </c>
-      <c r="H484">
-        <v>3.4E-5</v>
-      </c>
-      <c r="I484">
-        <v>2.8E-5</v>
-      </c>
-      <c r="J484">
-        <v>16</v>
-      </c>
-      <c r="K484">
-        <v>3.3660000000000001E-3</v>
-      </c>
-      <c r="L484" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A485">
-        <v>400</v>
-      </c>
-      <c r="B485">
-        <v>0.104738</v>
-      </c>
-      <c r="C485">
-        <v>1.81E-3</v>
-      </c>
-      <c r="D485">
-        <v>4.0900000000000002E-4</v>
-      </c>
-      <c r="E485">
-        <v>2.787E-3</v>
-      </c>
-      <c r="F485">
-        <v>3.5300000000000002E-4</v>
-      </c>
-      <c r="G485">
-        <v>7.1199999999999996E-4</v>
-      </c>
-      <c r="H485">
-        <v>5.7000000000000003E-5</v>
-      </c>
-      <c r="I485">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="J485">
-        <v>16</v>
-      </c>
-      <c r="K485">
-        <v>5.3080000000000002E-3</v>
-      </c>
-      <c r="L485" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A486">
-        <v>500</v>
-      </c>
-      <c r="B486">
-        <v>0.105596</v>
-      </c>
-      <c r="C486">
-        <v>2.1189999999999998E-3</v>
-      </c>
-      <c r="D486">
-        <v>4.86E-4</v>
-      </c>
-      <c r="E486">
-        <v>3.7290000000000001E-3</v>
-      </c>
-      <c r="F486">
-        <v>2.33E-4</v>
-      </c>
-      <c r="G486">
-        <v>9.0399999999999996E-4</v>
-      </c>
-      <c r="H486">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="I486">
-        <v>5.3000000000000001E-5</v>
-      </c>
-      <c r="J486">
-        <v>16</v>
-      </c>
-      <c r="K486">
-        <v>6.7520000000000002E-3</v>
-      </c>
-      <c r="L486" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A487">
-        <v>600</v>
-      </c>
-      <c r="B487">
-        <v>0.10526099999999999</v>
-      </c>
-      <c r="C487">
-        <v>2.761E-3</v>
-      </c>
-      <c r="D487">
-        <v>5.4199999999999995E-4</v>
-      </c>
-      <c r="E487">
-        <v>6.6629999999999997E-3</v>
-      </c>
-      <c r="F487">
-        <v>2.43E-4</v>
-      </c>
-      <c r="G487">
-        <v>1.1709999999999999E-3</v>
-      </c>
-      <c r="H487">
-        <v>1.0900000000000001E-4</v>
-      </c>
-      <c r="I487">
-        <v>3.1000000000000001E-5</v>
-      </c>
-      <c r="J487">
-        <v>16</v>
-      </c>
-      <c r="K487">
-        <v>1.0595E-2</v>
-      </c>
-      <c r="L487" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A488">
-        <v>700</v>
-      </c>
-      <c r="B488">
-        <v>0.105458</v>
-      </c>
-      <c r="C488">
-        <v>3.313E-3</v>
-      </c>
-      <c r="D488">
-        <v>6.2500000000000001E-4</v>
-      </c>
-      <c r="E488">
-        <v>8.9289999999999994E-3</v>
-      </c>
-      <c r="F488">
-        <v>2.1900000000000001E-4</v>
-      </c>
-      <c r="G488">
-        <v>1.5120000000000001E-3</v>
-      </c>
-      <c r="H488">
-        <v>9.8999999999999994E-5</v>
-      </c>
-      <c r="I488">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="J488">
-        <v>16</v>
-      </c>
-      <c r="K488">
-        <v>1.3754000000000001E-2</v>
-      </c>
-      <c r="L488" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A489">
-        <v>800</v>
-      </c>
-      <c r="B489">
-        <v>0.103951</v>
-      </c>
-      <c r="C489">
-        <v>4.1260000000000003E-3</v>
-      </c>
-      <c r="D489">
-        <v>5.3200000000000003E-4</v>
-      </c>
-      <c r="E489">
-        <v>1.5656E-2</v>
-      </c>
-      <c r="F489">
-        <v>1.397E-3</v>
-      </c>
-      <c r="G489">
-        <v>1.8680000000000001E-3</v>
-      </c>
-      <c r="H489">
-        <v>2.5599999999999999E-4</v>
-      </c>
-      <c r="I489">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="J489">
-        <v>16</v>
-      </c>
-      <c r="K489">
-        <v>2.1649999999999999E-2</v>
-      </c>
-      <c r="L489" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A490">
-        <v>900</v>
-      </c>
-      <c r="B490">
-        <v>0.10463600000000001</v>
-      </c>
-      <c r="C490">
-        <v>4.9659999999999999E-3</v>
-      </c>
-      <c r="D490">
-        <v>5.5099999999999995E-4</v>
-      </c>
-      <c r="E490">
-        <v>2.1248E-2</v>
-      </c>
-      <c r="F490">
-        <v>2.1900000000000001E-4</v>
-      </c>
-      <c r="G490">
-        <v>2.2420000000000001E-3</v>
-      </c>
-      <c r="H490">
-        <v>1.11E-4</v>
-      </c>
-      <c r="I490">
-        <v>4.5000000000000003E-5</v>
-      </c>
-      <c r="J490">
-        <v>16</v>
-      </c>
-      <c r="K490">
-        <v>2.8455999999999999E-2</v>
-      </c>
-      <c r="L490" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A491">
-        <v>1000</v>
-      </c>
-      <c r="B491">
-        <v>0.10488599999999999</v>
-      </c>
-      <c r="C491">
-        <v>5.9699999999999996E-3</v>
-      </c>
-      <c r="D491">
-        <v>7.0799999999999997E-4</v>
-      </c>
-      <c r="E491">
-        <v>3.0676999999999999E-2</v>
-      </c>
-      <c r="F491">
-        <v>2.5460000000000001E-3</v>
-      </c>
-      <c r="G491">
-        <v>2.6289999999999998E-3</v>
-      </c>
-      <c r="H491">
-        <v>2.6499999999999999E-4</v>
-      </c>
-      <c r="I491">
-        <v>4.5000000000000003E-5</v>
-      </c>
-      <c r="J491">
-        <v>16</v>
-      </c>
-      <c r="K491">
-        <v>3.9274999999999997E-2</v>
-      </c>
-      <c r="L491" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A492">
-        <v>1100</v>
-      </c>
-      <c r="B492">
-        <v>0.105129</v>
-      </c>
-      <c r="C492">
-        <v>7.254E-3</v>
-      </c>
-      <c r="D492">
-        <v>5.5800000000000001E-4</v>
-      </c>
-      <c r="E492">
-        <v>3.8752000000000002E-2</v>
-      </c>
-      <c r="F492">
-        <v>3.019E-3</v>
-      </c>
-      <c r="G492">
-        <v>3.0609999999999999E-3</v>
-      </c>
-      <c r="H492">
-        <v>3.1E-4</v>
-      </c>
-      <c r="I492">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="J492">
-        <v>16</v>
-      </c>
-      <c r="K492">
-        <v>4.9067E-2</v>
-      </c>
-      <c r="L492" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A493">
-        <v>1200</v>
-      </c>
-      <c r="B493">
-        <v>0.104215</v>
-      </c>
-      <c r="C493">
-        <v>8.0280000000000004E-3</v>
-      </c>
-      <c r="D493">
-        <v>8.0400000000000003E-4</v>
-      </c>
-      <c r="E493">
-        <v>4.5949999999999998E-2</v>
-      </c>
-      <c r="F493">
-        <v>4.4390000000000002E-3</v>
-      </c>
-      <c r="G493">
-        <v>4.4190000000000002E-3</v>
-      </c>
-      <c r="H493">
-        <v>1.4530000000000001E-3</v>
-      </c>
-      <c r="I493">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="J493">
-        <v>16</v>
-      </c>
-      <c r="K493">
-        <v>5.8396999999999998E-2</v>
-      </c>
-      <c r="L493" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A494">
-        <v>1300</v>
-      </c>
-      <c r="B494">
-        <v>0.104991</v>
-      </c>
-      <c r="C494">
-        <v>9.6970000000000008E-3</v>
-      </c>
-      <c r="D494">
-        <v>7.6999999999999996E-4</v>
-      </c>
-      <c r="E494">
-        <v>6.0788000000000002E-2</v>
-      </c>
-      <c r="F494">
-        <v>4.1070000000000004E-3</v>
-      </c>
-      <c r="G494">
-        <v>4.2009999999999999E-3</v>
-      </c>
-      <c r="H494">
-        <v>6.11E-4</v>
-      </c>
-      <c r="I494">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="J494">
-        <v>16</v>
-      </c>
-      <c r="K494">
-        <v>7.4686000000000002E-2</v>
-      </c>
-      <c r="L494" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A495">
-        <v>1400</v>
-      </c>
-      <c r="B495">
-        <v>0.10471</v>
-      </c>
-      <c r="C495">
-        <v>1.1287999999999999E-2</v>
-      </c>
-      <c r="D495">
-        <v>5.1199999999999998E-4</v>
-      </c>
-      <c r="E495">
-        <v>6.6085000000000005E-2</v>
-      </c>
-      <c r="F495">
-        <v>5.8699999999999996E-4</v>
-      </c>
-      <c r="G495">
-        <v>5.5259999999999997E-3</v>
-      </c>
-      <c r="H495">
-        <v>7.5799999999999999E-4</v>
-      </c>
-      <c r="I495">
-        <v>3.8000000000000002E-5</v>
-      </c>
-      <c r="J495">
-        <v>16</v>
-      </c>
-      <c r="K495">
-        <v>8.2899E-2</v>
-      </c>
-      <c r="L495" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A496">
-        <v>1500</v>
-      </c>
-      <c r="B496">
-        <v>0.10806</v>
-      </c>
-      <c r="C496">
-        <v>1.2567999999999999E-2</v>
-      </c>
-      <c r="D496">
-        <v>1.1709999999999999E-3</v>
-      </c>
-      <c r="E496">
-        <v>8.8108000000000006E-2</v>
-      </c>
-      <c r="F496">
-        <v>7.1500000000000003E-4</v>
-      </c>
-      <c r="G496">
-        <v>5.3949999999999996E-3</v>
-      </c>
-      <c r="H496">
-        <v>8.8699999999999998E-4</v>
-      </c>
-      <c r="I496">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="J496">
-        <v>16</v>
-      </c>
-      <c r="K496">
-        <v>0.106071</v>
-      </c>
-      <c r="L496" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A497">
-        <v>1600</v>
-      </c>
-      <c r="B497">
-        <v>0.104601</v>
-      </c>
-      <c r="C497">
-        <v>1.1391999999999999E-2</v>
-      </c>
-      <c r="D497">
-        <v>1.0280000000000001E-3</v>
-      </c>
-      <c r="E497">
-        <v>9.5940999999999999E-2</v>
-      </c>
-      <c r="F497">
-        <v>6.4800000000000003E-4</v>
-      </c>
-      <c r="G497">
-        <v>5.2230000000000002E-3</v>
-      </c>
-      <c r="H497">
-        <v>9.2000000000000003E-4</v>
-      </c>
-      <c r="I497">
-        <v>5.1999999999999997E-5</v>
-      </c>
-      <c r="J497">
-        <v>16</v>
-      </c>
-      <c r="K497">
-        <v>0.112557</v>
-      </c>
-      <c r="L497" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A498">
-        <v>1700</v>
-      </c>
-      <c r="B498">
-        <v>0.104784</v>
-      </c>
-      <c r="C498">
-        <v>1.5859999999999999E-2</v>
-      </c>
-      <c r="D498">
-        <v>1.3190000000000001E-3</v>
-      </c>
-      <c r="E498">
-        <v>0.120999</v>
-      </c>
-      <c r="F498">
-        <v>5.9800000000000001E-4</v>
-      </c>
-      <c r="G498">
-        <v>6.4819999999999999E-3</v>
-      </c>
-      <c r="H498">
-        <v>9.7000000000000005E-4</v>
-      </c>
-      <c r="I498">
-        <v>3.8999999999999999E-5</v>
-      </c>
-      <c r="J498">
-        <v>16</v>
-      </c>
-      <c r="K498">
-        <v>0.143342</v>
-      </c>
-      <c r="L498" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A499">
-        <v>1800</v>
-      </c>
-      <c r="B499">
-        <v>0.105346</v>
-      </c>
-      <c r="C499">
-        <v>1.7662000000000001E-2</v>
-      </c>
-      <c r="D499">
-        <v>1.5139999999999999E-3</v>
-      </c>
-      <c r="E499">
-        <v>0.15007699999999999</v>
-      </c>
-      <c r="F499">
-        <v>1.018E-3</v>
-      </c>
-      <c r="G499">
-        <v>7.2090000000000001E-3</v>
-      </c>
-      <c r="H499">
-        <v>1.0989999999999999E-3</v>
-      </c>
-      <c r="I499">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="J499">
-        <v>16</v>
-      </c>
-      <c r="K499">
-        <v>0.17494799999999999</v>
-      </c>
-      <c r="L499" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A500">
-        <v>1900</v>
-      </c>
-      <c r="B500">
-        <v>0.103655</v>
-      </c>
-      <c r="C500">
-        <v>1.9685000000000001E-2</v>
-      </c>
-      <c r="D500">
-        <v>1.7819999999999999E-3</v>
-      </c>
-      <c r="E500">
-        <v>0.16487099999999999</v>
-      </c>
-      <c r="F500">
-        <v>8.4099999999999995E-4</v>
-      </c>
-      <c r="G500">
-        <v>7.7799999999999996E-3</v>
-      </c>
-      <c r="H500">
-        <v>1.3060000000000001E-3</v>
-      </c>
-      <c r="I500">
-        <v>5.1999999999999997E-5</v>
-      </c>
-      <c r="J500">
-        <v>16</v>
-      </c>
-      <c r="K500">
-        <v>0.19233600000000001</v>
-      </c>
-      <c r="L500" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A501">
-        <v>2000</v>
-      </c>
-      <c r="B501">
-        <v>0.104777</v>
-      </c>
-      <c r="C501">
-        <v>2.1354999999999999E-2</v>
-      </c>
-      <c r="D501">
-        <v>1.74E-3</v>
-      </c>
-      <c r="E501">
-        <v>0.23821300000000001</v>
-      </c>
-      <c r="F501">
-        <v>9.4799999999999995E-4</v>
-      </c>
-      <c r="G501">
-        <v>8.5079999999999999E-3</v>
-      </c>
-      <c r="H501">
-        <v>1.338E-3</v>
-      </c>
-      <c r="I501">
-        <v>4.6999999999999997E-5</v>
-      </c>
-      <c r="J501">
-        <v>16</v>
-      </c>
-      <c r="K501">
-        <v>0.26807599999999998</v>
-      </c>
-      <c r="L501" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A502">
-        <v>2100</v>
-      </c>
-      <c r="B502">
-        <v>0.104605</v>
-      </c>
-      <c r="C502">
-        <v>2.3113000000000002E-2</v>
-      </c>
-      <c r="D502">
-        <v>2.0530000000000001E-3</v>
-      </c>
-      <c r="E502">
-        <v>0.21926300000000001</v>
-      </c>
-      <c r="F502">
-        <v>1.4139999999999999E-3</v>
-      </c>
-      <c r="G502">
-        <v>9.9360000000000004E-3</v>
-      </c>
-      <c r="H502">
-        <v>2.264E-3</v>
-      </c>
-      <c r="I502">
-        <v>5.1999999999999997E-5</v>
-      </c>
-      <c r="J502">
-        <v>16</v>
-      </c>
-      <c r="K502">
-        <v>0.25231300000000001</v>
-      </c>
-      <c r="L502" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A503">
-        <v>2200</v>
-      </c>
-      <c r="B503">
-        <v>0.10439</v>
-      </c>
-      <c r="C503">
-        <v>2.5125000000000001E-2</v>
-      </c>
-      <c r="D503">
-        <v>2.3249999999999998E-3</v>
-      </c>
-      <c r="E503">
-        <v>0.26114100000000001</v>
-      </c>
-      <c r="F503">
-        <v>1.2260000000000001E-3</v>
-      </c>
-      <c r="G503">
-        <v>1.0472E-2</v>
-      </c>
-      <c r="H503">
-        <v>1.9430000000000001E-3</v>
-      </c>
-      <c r="I503">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="J503">
-        <v>16</v>
-      </c>
-      <c r="K503">
-        <v>0.296738</v>
-      </c>
-      <c r="L503" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A504">
-        <v>2300</v>
-      </c>
-      <c r="B504">
-        <v>0.104337</v>
-      </c>
-      <c r="C504">
-        <v>2.7837000000000001E-2</v>
-      </c>
-      <c r="D504">
-        <v>2.405E-3</v>
-      </c>
-      <c r="E504">
-        <v>0.291576</v>
-      </c>
-      <c r="F504">
-        <v>1.369E-3</v>
-      </c>
-      <c r="G504">
-        <v>1.133E-2</v>
-      </c>
-      <c r="H504">
-        <v>2.3310000000000002E-3</v>
-      </c>
-      <c r="I504">
-        <v>5.1999999999999997E-5</v>
-      </c>
-      <c r="J504">
-        <v>16</v>
-      </c>
-      <c r="K504">
-        <v>0.33074300000000001</v>
-      </c>
-      <c r="L504" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A505">
-        <v>2400</v>
-      </c>
-      <c r="B505">
-        <v>0.104768</v>
-      </c>
-      <c r="C505">
-        <v>2.9603000000000001E-2</v>
-      </c>
-      <c r="D505">
-        <v>2.7650000000000001E-3</v>
-      </c>
-      <c r="E505">
-        <v>0.33697100000000002</v>
-      </c>
-      <c r="F505">
-        <v>1.8799999999999999E-4</v>
-      </c>
-      <c r="G505">
-        <v>1.2540000000000001E-2</v>
-      </c>
-      <c r="H505">
-        <v>2.5439999999999998E-3</v>
-      </c>
-      <c r="I505">
-        <v>4.8000000000000001E-5</v>
-      </c>
-      <c r="J505">
-        <v>16</v>
-      </c>
-      <c r="K505">
-        <v>0.37911299999999998</v>
-      </c>
-      <c r="L505" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A506">
-        <v>2500</v>
-      </c>
-      <c r="B506">
-        <v>0.11050699999999999</v>
-      </c>
-      <c r="C506">
-        <v>3.2728E-2</v>
-      </c>
-      <c r="D506">
-        <v>3.2390000000000001E-3</v>
-      </c>
-      <c r="E506">
-        <v>0.40033000000000002</v>
-      </c>
-      <c r="F506">
-        <v>6.11E-4</v>
-      </c>
-      <c r="G506">
-        <v>1.3505E-2</v>
-      </c>
-      <c r="H506">
-        <v>2.787E-3</v>
-      </c>
-      <c r="I506">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="J506">
-        <v>16</v>
-      </c>
-      <c r="K506">
-        <v>0.44656299999999999</v>
-      </c>
-      <c r="L506" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A507">
-        <v>2600</v>
-      </c>
-      <c r="B507">
-        <v>0.10549600000000001</v>
-      </c>
-      <c r="C507">
-        <v>3.4816E-2</v>
-      </c>
-      <c r="D507">
-        <v>3.248E-3</v>
-      </c>
-      <c r="E507">
-        <v>0.42270999999999997</v>
-      </c>
-      <c r="F507">
-        <v>2.1499999999999999E-4</v>
-      </c>
-      <c r="G507">
-        <v>1.4348E-2</v>
-      </c>
-      <c r="H507">
-        <v>2.983E-3</v>
-      </c>
-      <c r="I507">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="J507">
-        <v>16</v>
-      </c>
-      <c r="K507">
-        <v>0.47187299999999999</v>
-      </c>
-      <c r="L507" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A508">
-        <v>2700</v>
-      </c>
-      <c r="B508">
-        <v>0.104297</v>
-      </c>
-      <c r="C508">
-        <v>3.9399000000000003E-2</v>
-      </c>
-      <c r="D508">
-        <v>6.0749999999999997E-3</v>
-      </c>
-      <c r="E508">
-        <v>0.48591099999999998</v>
-      </c>
-      <c r="F508">
-        <v>1.7000000000000001E-4</v>
-      </c>
-      <c r="G508">
-        <v>1.5521E-2</v>
-      </c>
-      <c r="H508">
-        <v>3.0899999999999999E-3</v>
-      </c>
-      <c r="I508">
-        <v>4.8999999999999998E-5</v>
-      </c>
-      <c r="J508">
-        <v>16</v>
-      </c>
-      <c r="K508">
-        <v>0.54083099999999995</v>
-      </c>
-      <c r="L508" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A509">
-        <v>2800</v>
-      </c>
-      <c r="B509">
-        <v>0.10488500000000001</v>
-      </c>
-      <c r="C509">
-        <v>3.9890000000000002E-2</v>
-      </c>
-      <c r="D509">
-        <v>3.8310000000000002E-3</v>
-      </c>
-      <c r="E509">
-        <v>0.53264500000000004</v>
-      </c>
-      <c r="F509">
-        <v>1.15E-4</v>
-      </c>
-      <c r="G509">
-        <v>1.6489E-2</v>
-      </c>
-      <c r="H509">
-        <v>3.362E-3</v>
-      </c>
-      <c r="I509">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="J509">
-        <v>16</v>
-      </c>
-      <c r="K509">
-        <v>0.58902399999999999</v>
-      </c>
-      <c r="L509" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A510">
-        <v>2900</v>
-      </c>
-      <c r="B510">
-        <v>0.10516300000000001</v>
-      </c>
-      <c r="C510">
-        <v>4.6497999999999998E-2</v>
-      </c>
-      <c r="D510">
-        <v>2.3319999999999999E-3</v>
-      </c>
-      <c r="E510">
-        <v>0.59648000000000001</v>
-      </c>
-      <c r="F510">
-        <v>6.2000000000000003E-5</v>
-      </c>
-      <c r="G510">
-        <v>1.9349999999999999E-2</v>
-      </c>
-      <c r="H510">
-        <v>2.6589999999999999E-3</v>
-      </c>
-      <c r="I510">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="J510">
-        <v>16</v>
-      </c>
-      <c r="K510">
-        <v>0.66232800000000003</v>
-      </c>
-      <c r="L510" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A511">
-        <v>3000</v>
-      </c>
-      <c r="B511">
-        <v>0.10416400000000001</v>
-      </c>
-      <c r="C511">
-        <v>4.9708000000000002E-2</v>
-      </c>
-      <c r="D511">
-        <v>3.1480000000000002E-3</v>
-      </c>
-      <c r="E511">
-        <v>0.63379399999999997</v>
-      </c>
-      <c r="F511">
-        <v>8.9300000000000002E-4</v>
-      </c>
-      <c r="G511">
-        <v>2.0235E-2</v>
-      </c>
-      <c r="H511">
-        <v>2.872E-3</v>
-      </c>
-      <c r="I511">
-        <v>5.5999999999999999E-5</v>
-      </c>
-      <c r="J511">
-        <v>16</v>
-      </c>
-      <c r="K511">
-        <v>0.70373699999999995</v>
-      </c>
-      <c r="L511" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A512">
-        <v>3100</v>
-      </c>
-      <c r="B512">
-        <v>0.103892</v>
-      </c>
-      <c r="C512">
-        <v>5.2771999999999999E-2</v>
-      </c>
-      <c r="D512">
-        <v>2.336E-3</v>
-      </c>
-      <c r="E512">
-        <v>0.71954499999999999</v>
-      </c>
-      <c r="F512">
-        <v>5.5800000000000001E-4</v>
-      </c>
-      <c r="G512">
-        <v>2.1946E-2</v>
-      </c>
-      <c r="H512">
-        <v>3.2729999999999999E-3</v>
-      </c>
-      <c r="I512">
-        <v>6.8999999999999997E-5</v>
-      </c>
-      <c r="J512">
-        <v>16</v>
-      </c>
-      <c r="K512">
-        <v>0.79426300000000005</v>
-      </c>
-      <c r="L512" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A513">
-        <v>3200</v>
-      </c>
-      <c r="B513">
-        <v>0.10434599999999999</v>
-      </c>
-      <c r="C513">
-        <v>4.4371000000000001E-2</v>
-      </c>
-      <c r="D513">
-        <v>1.786E-3</v>
-      </c>
-      <c r="E513">
-        <v>0.76436499999999996</v>
-      </c>
-      <c r="F513">
-        <v>2.8699999999999998E-4</v>
-      </c>
-      <c r="G513">
-        <v>2.2332000000000001E-2</v>
-      </c>
-      <c r="H513">
-        <v>3.3890000000000001E-3</v>
-      </c>
-      <c r="I513">
-        <v>7.3999999999999996E-5</v>
-      </c>
-      <c r="J513">
-        <v>16</v>
-      </c>
-      <c r="K513">
-        <v>0.83106800000000003</v>
-      </c>
-      <c r="L513" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A514">
-        <v>3300</v>
-      </c>
-      <c r="B514">
-        <v>0.104647</v>
-      </c>
-      <c r="C514">
-        <v>5.9451999999999998E-2</v>
-      </c>
-      <c r="D514">
-        <v>2.9789999999999999E-3</v>
-      </c>
-      <c r="E514">
-        <v>0.87582700000000002</v>
-      </c>
-      <c r="F514">
-        <v>3.2699999999999998E-4</v>
-      </c>
-      <c r="G514">
-        <v>2.6398000000000001E-2</v>
-      </c>
-      <c r="H514">
-        <v>6.4619999999999999E-3</v>
-      </c>
-      <c r="I514">
-        <v>5.8E-5</v>
-      </c>
-      <c r="J514">
-        <v>16</v>
-      </c>
-      <c r="K514">
-        <v>0.961677</v>
-      </c>
-      <c r="L514" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A515">
-        <v>3400</v>
-      </c>
-      <c r="B515">
-        <v>0.10422099999999999</v>
-      </c>
-      <c r="C515">
-        <v>6.3863000000000003E-2</v>
-      </c>
-      <c r="D515">
-        <v>2.6740000000000002E-3</v>
-      </c>
-      <c r="E515">
-        <v>0.96118999999999999</v>
-      </c>
-      <c r="F515">
-        <v>5.0799999999999999E-4</v>
-      </c>
-      <c r="G515">
-        <v>2.5798999999999999E-2</v>
-      </c>
-      <c r="H515">
-        <v>3.8080000000000002E-3</v>
-      </c>
-      <c r="I515">
+      <c r="B521" s="1">
+        <v>0.108224</v>
+      </c>
+      <c r="C521" s="1">
+        <v>8.9229000000000003E-2</v>
+      </c>
+      <c r="D521" s="1">
+        <v>3.908E-3</v>
+      </c>
+      <c r="E521" s="1">
+        <v>1.522292</v>
+      </c>
+      <c r="F521" s="1">
+        <v>1.1400000000000001E-4</v>
+      </c>
+      <c r="G521" s="1">
+        <v>3.5982E-2</v>
+      </c>
+      <c r="H521" s="1">
+        <v>5.2259999999999997E-3</v>
+      </c>
+      <c r="I521" s="1">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="J515">
-        <v>16</v>
-      </c>
-      <c r="K515">
-        <v>1.0508519999999999</v>
-      </c>
-      <c r="L515" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A516">
-        <v>3500</v>
-      </c>
-      <c r="B516">
-        <v>0.10462</v>
-      </c>
-      <c r="C516">
-        <v>6.6549999999999998E-2</v>
-      </c>
-      <c r="D516">
-        <v>3.1080000000000001E-3</v>
-      </c>
-      <c r="E516">
-        <v>1.014464</v>
-      </c>
-      <c r="F516">
-        <v>3.9500000000000001E-4</v>
-      </c>
-      <c r="G516">
-        <v>2.7507E-2</v>
-      </c>
-      <c r="H516">
-        <v>4.1019999999999997E-3</v>
-      </c>
-      <c r="I516">
-        <v>6.0999999999999999E-5</v>
-      </c>
-      <c r="J516">
-        <v>16</v>
-      </c>
-      <c r="K516">
-        <v>1.1085199999999999</v>
-      </c>
-      <c r="L516" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A517">
-        <v>3600</v>
-      </c>
-      <c r="B517">
-        <v>0.104743</v>
-      </c>
-      <c r="C517">
-        <v>7.2911000000000004E-2</v>
-      </c>
-      <c r="D517">
-        <v>3.3969999999999998E-3</v>
-      </c>
-      <c r="E517">
-        <v>1.128417</v>
-      </c>
-      <c r="F517">
-        <v>4.64E-4</v>
-      </c>
-      <c r="G517">
-        <v>2.8768999999999999E-2</v>
-      </c>
-      <c r="H517">
-        <v>4.3800000000000002E-3</v>
-      </c>
-      <c r="I517">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="J517">
-        <v>16</v>
-      </c>
-      <c r="K517">
-        <v>1.2300960000000001</v>
-      </c>
-      <c r="L517" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A518">
-        <v>3700</v>
-      </c>
-      <c r="B518">
-        <v>0.105088</v>
-      </c>
-      <c r="C518">
-        <v>8.2149E-2</v>
-      </c>
-      <c r="D518">
-        <v>1.0696000000000001E-2</v>
-      </c>
-      <c r="E518">
-        <v>1.197638</v>
-      </c>
-      <c r="F518">
-        <v>9.1710000000000003E-3</v>
-      </c>
-      <c r="G518">
-        <v>3.0387999999999998E-2</v>
-      </c>
-      <c r="H518">
-        <v>4.5960000000000003E-3</v>
-      </c>
-      <c r="I518">
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="J518">
-        <v>16</v>
-      </c>
-      <c r="K518">
-        <v>1.3101750000000001</v>
-      </c>
-      <c r="L518" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A519">
-        <v>3800</v>
-      </c>
-      <c r="B519">
-        <v>0.157776</v>
-      </c>
-      <c r="C519">
-        <v>8.1009999999999999E-2</v>
-      </c>
-      <c r="D519">
-        <v>3.7799999999999999E-3</v>
-      </c>
-      <c r="E519">
-        <v>1.339405</v>
-      </c>
-      <c r="F519">
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="G519">
-        <v>3.2222000000000001E-2</v>
-      </c>
-      <c r="H519">
-        <v>4.8269999999999997E-3</v>
-      </c>
-      <c r="I519">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="J519">
-        <v>16</v>
-      </c>
-      <c r="K519">
-        <v>1.452637</v>
-      </c>
-      <c r="L519" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A520">
-        <v>3900</v>
-      </c>
-      <c r="B520">
-        <v>0.104244</v>
-      </c>
-      <c r="C520">
-        <v>8.6522000000000002E-2</v>
-      </c>
-      <c r="D520">
-        <v>3.4290000000000002E-3</v>
-      </c>
-      <c r="E520">
-        <v>1.3830519999999999</v>
-      </c>
-      <c r="F520">
-        <v>1.18E-4</v>
-      </c>
-      <c r="G520">
-        <v>3.3971000000000001E-2</v>
-      </c>
-      <c r="H520">
-        <v>5.2319999999999997E-3</v>
-      </c>
-      <c r="I520">
-        <v>5.5000000000000002E-5</v>
-      </c>
-      <c r="J520">
-        <v>16</v>
-      </c>
-      <c r="K520">
-        <v>1.5035449999999999</v>
-      </c>
-      <c r="L520" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A521">
-        <v>4000</v>
-      </c>
-      <c r="B521">
-        <v>0.105642</v>
-      </c>
-      <c r="C521">
-        <v>8.9366000000000001E-2</v>
-      </c>
-      <c r="D521">
-        <v>3.7859999999999999E-3</v>
-      </c>
-      <c r="E521">
-        <v>1.5215259999999999</v>
-      </c>
-      <c r="F521">
-        <v>6.7000000000000002E-4</v>
-      </c>
-      <c r="G521">
-        <v>3.6195999999999999E-2</v>
-      </c>
-      <c r="H521">
-        <v>5.2960000000000004E-3</v>
-      </c>
-      <c r="I521">
-        <v>4.3999999999999999E-5</v>
-      </c>
-      <c r="J521">
-        <v>16</v>
-      </c>
-      <c r="K521">
-        <v>1.647089</v>
-      </c>
-      <c r="L521" t="s">
+      <c r="J521" s="1">
+        <v>16</v>
+      </c>
+      <c r="K521" s="1">
+        <v>1.6475029999999999</v>
+      </c>
+      <c r="L521" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B523" t="s">
         <v>13</v>
